--- a/gpower_dataset_230915.xlsx
+++ b/gpower_dataset_230915.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/53f41c7bf9ec3dbf/Documents/GitHub/gpower_23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{0587E396-324F-4638-A7F8-BA849C8D5918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86F0C8DC-5C4C-41C1-9AC4-5DE78519CA09}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{0587E396-324F-4638-A7F8-BA849C8D5918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A029270-2DA6-4FF9-8D4A-D396646A27D1}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-3443" yWindow="9203" windowWidth="21601" windowHeight="11054" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gpower_dataset_230915" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10451" uniqueCount="1257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10451" uniqueCount="1259">
   <si>
     <t>coder</t>
   </si>
@@ -3829,6 +3829,12 @@
   </si>
   <si>
     <t>The post hoc sample size was calculated based on an error of 10% (α = 0.10), and a power test of 85% for the main result of the electromyographic activity in the condition of raisin chewing (average values of the right temporal muscle). The value for the group with osteoarthrosis was 1.27 (0.86), and for the control group, the value was 0.81 (0.43), and the effect size was 0.67. The minimum sample size was 48 subjects (24 for each group). The sample size was calculated using the free-access software program G* Power version 3.1.9.2 (Franz Faul, Kiel University, Kiel, Germany).</t>
+  </si>
+  <si>
+    <t>Spanish Society of Oral Surgery (SECIB)</t>
+  </si>
+  <si>
+    <t>MSU College of Osteopathic Medicine Statewide Campus System</t>
   </si>
 </sst>
 </file>
@@ -3846,16 +3852,19 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3890,7 +3899,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3904,8 +3913,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4126,18 +4133,16 @@
   </sheetPr>
   <dimension ref="A1:AZ608"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M205" sqref="M205"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L232" sqref="L232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="12.42578125" customWidth="1"/>
     <col min="10" max="10" width="31.7109375" customWidth="1"/>
-    <col min="11" max="24" width="12.42578125" customWidth="1"/>
-    <col min="25" max="25" width="12.42578125" style="9" customWidth="1"/>
-    <col min="26" max="52" width="12.42578125" customWidth="1"/>
+    <col min="11" max="52" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="12.75" x14ac:dyDescent="0.2">
@@ -4213,7 +4218,7 @@
       <c r="X1" t="s">
         <v>1231</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Y1" t="s">
         <v>1232</v>
       </c>
       <c r="Z1" t="s">
@@ -4359,7 +4364,7 @@
       <c r="X2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Y2" s="1" t="s">
         <v>38</v>
       </c>
       <c r="Z2" s="1" t="s">
@@ -4505,7 +4510,7 @@
       <c r="X3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="Y3" s="10" t="s">
+      <c r="Y3" s="1" t="s">
         <v>84</v>
       </c>
       <c r="Z3" s="1" t="s">
@@ -4633,7 +4638,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-      <c r="Y4" s="10"/>
+      <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
@@ -4711,7 +4716,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-      <c r="Y5" s="10"/>
+      <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
@@ -4789,7 +4794,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
-      <c r="Y6" s="10"/>
+      <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
@@ -4851,7 +4856,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="10"/>
+      <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
@@ -4929,7 +4934,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
-      <c r="Y8" s="10"/>
+      <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
@@ -5007,7 +5012,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
-      <c r="Y9" s="10"/>
+      <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
@@ -5085,7 +5090,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-      <c r="Y10" s="10"/>
+      <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
@@ -5145,7 +5150,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-      <c r="Y11" s="10"/>
+      <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
@@ -5237,7 +5242,7 @@
       <c r="X12" s="1">
         <v>0.05</v>
       </c>
-      <c r="Y12" s="10" t="s">
+      <c r="Y12" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z12" s="1">
@@ -5361,7 +5366,7 @@
       <c r="X13" s="1">
         <v>0.05</v>
       </c>
-      <c r="Y13" s="10" t="s">
+      <c r="Y13" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z13" s="1">
@@ -5489,7 +5494,7 @@
       <c r="X14" s="1">
         <v>0.05</v>
       </c>
-      <c r="Y14" s="10" t="s">
+      <c r="Y14" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z14" s="1">
@@ -5579,7 +5584,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-      <c r="Y15" s="10"/>
+      <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
@@ -5659,7 +5664,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
-      <c r="Y16" s="10"/>
+      <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
@@ -5737,7 +5742,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
-      <c r="Y17" s="10"/>
+      <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
@@ -5815,7 +5820,7 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
-      <c r="Y18" s="10"/>
+      <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
@@ -5873,7 +5878,7 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
-      <c r="Y19" s="10"/>
+      <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
@@ -5951,7 +5956,7 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
-      <c r="Y20" s="10"/>
+      <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
@@ -6015,7 +6020,7 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
-      <c r="Y21" s="10"/>
+      <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
@@ -6095,7 +6100,7 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-      <c r="Y22" s="10"/>
+      <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
@@ -6150,7 +6155,7 @@
         <v>157</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>115</v>
+        <v>1257</v>
       </c>
       <c r="L23" s="1">
         <v>2020</v>
@@ -6175,7 +6180,7 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
-      <c r="Y23" s="10"/>
+      <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
@@ -6235,7 +6240,7 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
-      <c r="Y24" s="10"/>
+      <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
@@ -6329,7 +6334,7 @@
       <c r="X25" s="1">
         <v>0.05</v>
       </c>
-      <c r="Y25" s="10" t="s">
+      <c r="Y25" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z25" s="1">
@@ -6451,7 +6456,7 @@
       <c r="X26" s="1">
         <v>0.05</v>
       </c>
-      <c r="Y26" s="10" t="s">
+      <c r="Y26" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z26" s="1">
@@ -6575,7 +6580,7 @@
       <c r="X27" s="1">
         <v>0.05</v>
       </c>
-      <c r="Y27" s="10" t="s">
+      <c r="Y27" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z27" s="1">
@@ -6663,7 +6668,7 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
-      <c r="Y28" s="10"/>
+      <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
@@ -6763,7 +6768,7 @@
       <c r="X29" s="1">
         <v>0.05</v>
       </c>
-      <c r="Y29" s="10" t="s">
+      <c r="Y29" s="1" t="s">
         <v>111</v>
       </c>
       <c r="Z29" s="1"/>
@@ -6887,7 +6892,7 @@
       <c r="X30" s="1">
         <v>0.05</v>
       </c>
-      <c r="Y30" s="10" t="s">
+      <c r="Y30" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z30" s="1">
@@ -7009,7 +7014,7 @@
       <c r="X31" s="1">
         <v>0.05</v>
       </c>
-      <c r="Y31" s="10" t="s">
+      <c r="Y31" s="1" t="s">
         <v>111</v>
       </c>
       <c r="Z31" s="1"/>
@@ -7097,7 +7102,7 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
-      <c r="Y32" s="10" t="s">
+      <c r="Y32" s="1" t="s">
         <v>194</v>
       </c>
       <c r="Z32" s="1"/>
@@ -7183,7 +7188,7 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
-      <c r="Y33" s="10"/>
+      <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
@@ -7261,7 +7266,7 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
-      <c r="Y34" s="10"/>
+      <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
@@ -7339,7 +7344,7 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
-      <c r="Y35" s="10"/>
+      <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
@@ -7401,7 +7406,7 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
-      <c r="Y36" s="10"/>
+      <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
@@ -7495,7 +7500,7 @@
       <c r="X37" s="1">
         <v>0.05</v>
       </c>
-      <c r="Y37" s="10" t="s">
+      <c r="Y37" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z37" s="1">
@@ -7621,7 +7626,7 @@
       <c r="X38" s="1">
         <v>0.05</v>
       </c>
-      <c r="Y38" s="10" t="s">
+      <c r="Y38" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z38" s="1">
@@ -7749,7 +7754,7 @@
       <c r="X39" s="1">
         <v>0.05</v>
       </c>
-      <c r="Y39" s="10" t="s">
+      <c r="Y39" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z39" s="1">
@@ -7837,7 +7842,7 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
-      <c r="Y40" s="10"/>
+      <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
@@ -7933,7 +7938,7 @@
       <c r="X41" s="1">
         <v>0.05</v>
       </c>
-      <c r="Y41" s="10" t="s">
+      <c r="Y41" s="1" t="s">
         <v>111</v>
       </c>
       <c r="Z41" s="1"/>
@@ -8055,7 +8060,7 @@
       <c r="X42" s="1">
         <v>0.05</v>
       </c>
-      <c r="Y42" s="10" t="s">
+      <c r="Y42" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z42" s="1">
@@ -8181,7 +8186,7 @@
       <c r="X43" s="1">
         <v>0.05</v>
       </c>
-      <c r="Y43" s="10" t="s">
+      <c r="Y43" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z43" s="1">
@@ -8269,7 +8274,7 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
-      <c r="Y44" s="10" t="s">
+      <c r="Y44" s="1" t="s">
         <v>124</v>
       </c>
       <c r="Z44" s="1"/>
@@ -8351,7 +8356,7 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
-      <c r="Y45" s="10"/>
+      <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
@@ -8429,7 +8434,7 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
-      <c r="Y46" s="10"/>
+      <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
@@ -8507,7 +8512,7 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
-      <c r="Y47" s="10"/>
+      <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
@@ -8565,7 +8570,7 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
-      <c r="Y48" s="10"/>
+      <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
@@ -8643,7 +8648,7 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
-      <c r="Y49" s="10"/>
+      <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
@@ -8721,7 +8726,7 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
-      <c r="Y50" s="10"/>
+      <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
@@ -8799,7 +8804,7 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
-      <c r="Y51" s="10"/>
+      <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
@@ -8859,7 +8864,7 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
-      <c r="Y52" s="10"/>
+      <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
@@ -8937,7 +8942,7 @@
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
-      <c r="Y53" s="10"/>
+      <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
@@ -9015,7 +9020,7 @@
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
-      <c r="Y54" s="10"/>
+      <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
@@ -9093,7 +9098,7 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
-      <c r="Y55" s="10"/>
+      <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
@@ -9151,7 +9156,7 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
-      <c r="Y56" s="10"/>
+      <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
@@ -9243,7 +9248,7 @@
       <c r="X57" s="1">
         <v>0.05</v>
       </c>
-      <c r="Y57" s="10" t="s">
+      <c r="Y57" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z57" s="1"/>
@@ -9363,7 +9368,7 @@
       <c r="X58" s="1">
         <v>0.05</v>
       </c>
-      <c r="Y58" s="10" t="s">
+      <c r="Y58" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z58" s="1">
@@ -9485,7 +9490,7 @@
       <c r="X59" s="1">
         <v>0.05</v>
       </c>
-      <c r="Y59" s="10" t="s">
+      <c r="Y59" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z59" s="1">
@@ -9571,7 +9576,7 @@
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
-      <c r="Y60" s="10"/>
+      <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
@@ -9655,7 +9660,7 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
-      <c r="Y61" s="10"/>
+      <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
@@ -9733,7 +9738,7 @@
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
-      <c r="Y62" s="10"/>
+      <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
@@ -9811,7 +9816,7 @@
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
-      <c r="Y63" s="10"/>
+      <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
@@ -9873,7 +9878,7 @@
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
-      <c r="Y64" s="10"/>
+      <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
@@ -9967,7 +9972,7 @@
       <c r="X65" s="1">
         <v>0.05</v>
       </c>
-      <c r="Y65" s="10" t="s">
+      <c r="Y65" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z65" s="1">
@@ -10093,7 +10098,7 @@
       <c r="X66" s="1">
         <v>0.05</v>
       </c>
-      <c r="Y66" s="10" t="s">
+      <c r="Y66" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z66" s="1">
@@ -10221,7 +10226,7 @@
       <c r="X67" s="1">
         <v>0.05</v>
       </c>
-      <c r="Y67" s="10" t="s">
+      <c r="Y67" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z67" s="1">
@@ -10303,7 +10308,7 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
-      <c r="Y68" s="10"/>
+      <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
@@ -10401,7 +10406,7 @@
       <c r="X69" s="1">
         <v>0.05</v>
       </c>
-      <c r="Y69" s="10" t="s">
+      <c r="Y69" s="1" t="s">
         <v>111</v>
       </c>
       <c r="Z69" s="1"/>
@@ -10527,7 +10532,7 @@
       <c r="X70" s="1">
         <v>0.05</v>
       </c>
-      <c r="Y70" s="10" t="s">
+      <c r="Y70" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z70" s="1">
@@ -10655,7 +10660,7 @@
       <c r="X71" s="1">
         <v>0.05</v>
       </c>
-      <c r="Y71" s="10" t="s">
+      <c r="Y71" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z71" s="1">
@@ -10737,7 +10742,7 @@
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
-      <c r="Y72" s="10" t="s">
+      <c r="Y72" s="1" t="s">
         <v>124</v>
       </c>
       <c r="Z72" s="1"/>
@@ -10833,7 +10838,7 @@
       <c r="X73" s="1">
         <v>0.05</v>
       </c>
-      <c r="Y73" s="10" t="s">
+      <c r="Y73" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z73" s="1">
@@ -10957,7 +10962,7 @@
       <c r="X74" s="1">
         <v>0.05</v>
       </c>
-      <c r="Y74" s="10" t="s">
+      <c r="Y74" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z74" s="1">
@@ -11081,7 +11086,7 @@
       <c r="X75" s="1">
         <v>0.05</v>
       </c>
-      <c r="Y75" s="10" t="s">
+      <c r="Y75" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z75" s="1">
@@ -11165,7 +11170,7 @@
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
       <c r="X76" s="1"/>
-      <c r="Y76" s="10"/>
+      <c r="Y76" s="1"/>
       <c r="Z76" s="1" t="s">
         <v>124</v>
       </c>
@@ -11259,7 +11264,7 @@
       <c r="X77" s="1">
         <v>0.05</v>
       </c>
-      <c r="Y77" s="10" t="s">
+      <c r="Y77" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z77" s="1">
@@ -11381,7 +11386,7 @@
       <c r="X78" s="1">
         <v>0.05</v>
       </c>
-      <c r="Y78" s="10" t="s">
+      <c r="Y78" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z78" s="1">
@@ -11505,7 +11510,7 @@
       <c r="X79" s="1">
         <v>0.05</v>
       </c>
-      <c r="Y79" s="10" t="s">
+      <c r="Y79" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z79" s="1">
@@ -11593,7 +11598,7 @@
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
       <c r="X80" s="1"/>
-      <c r="Y80" s="10"/>
+      <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
@@ -11691,7 +11696,7 @@
       <c r="X81" s="1">
         <v>0.05</v>
       </c>
-      <c r="Y81" s="10" t="s">
+      <c r="Y81" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z81" s="1">
@@ -11817,7 +11822,7 @@
       <c r="X82" s="1">
         <v>0.05</v>
       </c>
-      <c r="Y82" s="10" t="s">
+      <c r="Y82" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z82" s="1">
@@ -11941,7 +11946,7 @@
       <c r="X83" s="1">
         <v>0.05</v>
       </c>
-      <c r="Y83" s="10" t="s">
+      <c r="Y83" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z83" s="1">
@@ -12027,7 +12032,7 @@
       <c r="V84" s="1"/>
       <c r="W84" s="1"/>
       <c r="X84" s="1"/>
-      <c r="Y84" s="10"/>
+      <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
@@ -12117,7 +12122,7 @@
         <v>111</v>
       </c>
       <c r="X85" s="1"/>
-      <c r="Y85" s="10" t="s">
+      <c r="Y85" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z85" s="1">
@@ -12235,7 +12240,7 @@
         <v>111</v>
       </c>
       <c r="X86" s="1"/>
-      <c r="Y86" s="10" t="s">
+      <c r="Y86" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z86" s="1">
@@ -12355,7 +12360,7 @@
         <v>111</v>
       </c>
       <c r="X87" s="1"/>
-      <c r="Y87" s="10" t="s">
+      <c r="Y87" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z87" s="1">
@@ -12443,7 +12448,7 @@
       <c r="V88" s="5"/>
       <c r="W88" s="1"/>
       <c r="X88" s="1"/>
-      <c r="Y88" s="10"/>
+      <c r="Y88" s="1"/>
       <c r="Z88" s="1" t="s">
         <v>124</v>
       </c>
@@ -12541,7 +12546,7 @@
         <v>331</v>
       </c>
       <c r="X89" s="1"/>
-      <c r="Y89" s="10" t="s">
+      <c r="Y89" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z89" s="1">
@@ -12659,7 +12664,7 @@
         <v>331</v>
       </c>
       <c r="X90" s="1"/>
-      <c r="Y90" s="10" t="s">
+      <c r="Y90" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z90" s="1">
@@ -12779,7 +12784,7 @@
         <v>331</v>
       </c>
       <c r="X91" s="1"/>
-      <c r="Y91" s="10" t="s">
+      <c r="Y91" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z91" s="1">
@@ -12867,7 +12872,7 @@
       <c r="V92" s="5"/>
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
-      <c r="Y92" s="10"/>
+      <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
@@ -12959,7 +12964,7 @@
         <v>331</v>
       </c>
       <c r="X93" s="1"/>
-      <c r="Y93" s="10" t="s">
+      <c r="Y93" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z93" s="1">
@@ -13081,7 +13086,7 @@
       <c r="X94" s="1">
         <v>0.05</v>
       </c>
-      <c r="Y94" s="10" t="s">
+      <c r="Y94" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z94" s="1">
@@ -13207,7 +13212,7 @@
       <c r="X95" s="1">
         <v>0.05</v>
       </c>
-      <c r="Y95" s="10" t="s">
+      <c r="Y95" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z95" s="1">
@@ -13293,7 +13298,7 @@
       <c r="V96" s="5"/>
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
-      <c r="Y96" s="10"/>
+      <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
@@ -13387,7 +13392,7 @@
         <v>111</v>
       </c>
       <c r="X97" s="1"/>
-      <c r="Y97" s="10" t="s">
+      <c r="Y97" s="1" t="s">
         <v>111</v>
       </c>
       <c r="Z97" s="1"/>
@@ -13499,7 +13504,7 @@
         <v>111</v>
       </c>
       <c r="X98" s="1"/>
-      <c r="Y98" s="10" t="s">
+      <c r="Y98" s="1" t="s">
         <v>111</v>
       </c>
       <c r="Z98" s="1"/>
@@ -13617,7 +13622,7 @@
         <v>111</v>
       </c>
       <c r="X99" s="1"/>
-      <c r="Y99" s="10" t="s">
+      <c r="Y99" s="1" t="s">
         <v>111</v>
       </c>
       <c r="Z99" s="1"/>
@@ -13703,7 +13708,7 @@
       <c r="V100" s="5"/>
       <c r="W100" s="1"/>
       <c r="X100" s="1"/>
-      <c r="Y100" s="10"/>
+      <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
@@ -13795,7 +13800,7 @@
         <v>111</v>
       </c>
       <c r="X101" s="1"/>
-      <c r="Y101" s="10" t="s">
+      <c r="Y101" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z101" s="1">
@@ -13907,7 +13912,7 @@
         <v>111</v>
       </c>
       <c r="X102" s="1"/>
-      <c r="Y102" s="10" t="s">
+      <c r="Y102" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z102" s="1">
@@ -14027,7 +14032,7 @@
         <v>111</v>
       </c>
       <c r="X103" s="1"/>
-      <c r="Y103" s="10" t="s">
+      <c r="Y103" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z103" s="1">
@@ -14115,7 +14120,7 @@
       <c r="V104" s="5"/>
       <c r="W104" s="1"/>
       <c r="X104" s="1"/>
-      <c r="Y104" s="10"/>
+      <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
@@ -14209,7 +14214,7 @@
       <c r="X105" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y105" s="10" t="s">
+      <c r="Y105" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z105" s="1">
@@ -14327,7 +14332,7 @@
       <c r="X106" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y106" s="10" t="s">
+      <c r="Y106" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z106" s="1">
@@ -14443,7 +14448,7 @@
       <c r="X107" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y107" s="10" t="s">
+      <c r="Y107" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z107" s="1">
@@ -14527,7 +14532,7 @@
       <c r="V108" s="5"/>
       <c r="W108" s="1"/>
       <c r="X108" s="1"/>
-      <c r="Y108" s="10"/>
+      <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
@@ -14595,7 +14600,7 @@
       <c r="V109" s="5"/>
       <c r="W109" s="1"/>
       <c r="X109" s="1"/>
-      <c r="Y109" s="10"/>
+      <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
@@ -14661,7 +14666,7 @@
       <c r="V110" s="5"/>
       <c r="W110" s="1"/>
       <c r="X110" s="1"/>
-      <c r="Y110" s="10"/>
+      <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
@@ -14725,7 +14730,7 @@
       <c r="V111" s="5"/>
       <c r="W111" s="1"/>
       <c r="X111" s="1"/>
-      <c r="Y111" s="10"/>
+      <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
@@ -14783,7 +14788,7 @@
       <c r="V112" s="5"/>
       <c r="W112" s="1"/>
       <c r="X112" s="1"/>
-      <c r="Y112" s="10"/>
+      <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
@@ -14873,7 +14878,7 @@
         <v>111</v>
       </c>
       <c r="X113" s="1"/>
-      <c r="Y113" s="10" t="s">
+      <c r="Y113" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z113" s="1">
@@ -14989,7 +14994,7 @@
         <v>111</v>
       </c>
       <c r="X114" s="1"/>
-      <c r="Y114" s="10" t="s">
+      <c r="Y114" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z114" s="1">
@@ -15107,7 +15112,7 @@
         <v>111</v>
       </c>
       <c r="X115" s="1"/>
-      <c r="Y115" s="10" t="s">
+      <c r="Y115" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z115" s="1">
@@ -15193,7 +15198,7 @@
       <c r="V116" s="5"/>
       <c r="W116" s="1"/>
       <c r="X116" s="1"/>
-      <c r="Y116" s="10"/>
+      <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
@@ -15285,7 +15290,7 @@
         <v>331</v>
       </c>
       <c r="X117" s="1"/>
-      <c r="Y117" s="10" t="s">
+      <c r="Y117" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z117" s="1">
@@ -15401,7 +15406,7 @@
         <v>331</v>
       </c>
       <c r="X118" s="1"/>
-      <c r="Y118" s="10" t="s">
+      <c r="Y118" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z118" s="1">
@@ -15523,7 +15528,7 @@
         <v>331</v>
       </c>
       <c r="X119" s="1"/>
-      <c r="Y119" s="10" t="s">
+      <c r="Y119" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z119" s="1">
@@ -15611,7 +15616,7 @@
       <c r="V120" s="5"/>
       <c r="W120" s="1"/>
       <c r="X120" s="1"/>
-      <c r="Y120" s="10"/>
+      <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
@@ -15705,7 +15710,7 @@
         <v>331</v>
       </c>
       <c r="X121" s="1"/>
-      <c r="Y121" s="10" t="s">
+      <c r="Y121" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z121" s="1">
@@ -15825,7 +15830,7 @@
       <c r="X122" s="1">
         <v>0.05</v>
       </c>
-      <c r="Y122" s="10" t="s">
+      <c r="Y122" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z122" s="1">
@@ -15951,7 +15956,7 @@
       <c r="X123" s="1">
         <v>0.05</v>
       </c>
-      <c r="Y123" s="10" t="s">
+      <c r="Y123" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z123" s="1">
@@ -16041,7 +16046,7 @@
       <c r="V124" s="5"/>
       <c r="W124" s="1"/>
       <c r="X124" s="1"/>
-      <c r="Y124" s="10"/>
+      <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
       <c r="AA124" s="1"/>
       <c r="AB124" s="1"/>
@@ -16121,7 +16126,7 @@
       <c r="V125" s="5"/>
       <c r="W125" s="1"/>
       <c r="X125" s="1"/>
-      <c r="Y125" s="10"/>
+      <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
       <c r="AA125" s="1"/>
       <c r="AB125" s="1"/>
@@ -16209,7 +16214,7 @@
         <v>331</v>
       </c>
       <c r="X126" s="1"/>
-      <c r="Y126" s="10" t="s">
+      <c r="Y126" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z126" s="1">
@@ -16329,7 +16334,7 @@
         <v>331</v>
       </c>
       <c r="X127" s="1"/>
-      <c r="Y127" s="10" t="s">
+      <c r="Y127" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z127" s="1">
@@ -16449,7 +16454,7 @@
         <v>331</v>
       </c>
       <c r="X128" s="1"/>
-      <c r="Y128" s="10" t="s">
+      <c r="Y128" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z128" s="1">
@@ -16543,7 +16548,7 @@
       <c r="V129" s="5"/>
       <c r="W129" s="1"/>
       <c r="X129" s="1"/>
-      <c r="Y129" s="10"/>
+      <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
       <c r="AA129" s="1"/>
       <c r="AB129" s="1"/>
@@ -16629,7 +16634,7 @@
       <c r="V130" s="5"/>
       <c r="W130" s="1"/>
       <c r="X130" s="1"/>
-      <c r="Y130" s="10"/>
+      <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
       <c r="AA130" s="1"/>
       <c r="AB130" s="1"/>
@@ -16709,7 +16714,7 @@
       <c r="V131" s="5"/>
       <c r="W131" s="1"/>
       <c r="X131" s="1"/>
-      <c r="Y131" s="10"/>
+      <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
       <c r="AA131" s="1"/>
       <c r="AB131" s="1"/>
@@ -16789,7 +16794,7 @@
       <c r="V132" s="5"/>
       <c r="W132" s="1"/>
       <c r="X132" s="1"/>
-      <c r="Y132" s="10"/>
+      <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
       <c r="AA132" s="1"/>
       <c r="AB132" s="1"/>
@@ -16849,7 +16854,7 @@
       <c r="V133" s="5"/>
       <c r="W133" s="1"/>
       <c r="X133" s="1"/>
-      <c r="Y133" s="10"/>
+      <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
       <c r="AA133" s="1"/>
       <c r="AB133" s="1"/>
@@ -16927,7 +16932,7 @@
       <c r="V134" s="5"/>
       <c r="W134" s="1"/>
       <c r="X134" s="1"/>
-      <c r="Y134" s="10"/>
+      <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
       <c r="AA134" s="1"/>
       <c r="AB134" s="1"/>
@@ -17005,7 +17010,7 @@
       <c r="V135" s="5"/>
       <c r="W135" s="1"/>
       <c r="X135" s="1"/>
-      <c r="Y135" s="10"/>
+      <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
       <c r="AA135" s="1"/>
       <c r="AB135" s="1"/>
@@ -17083,7 +17088,7 @@
       <c r="V136" s="5"/>
       <c r="W136" s="1"/>
       <c r="X136" s="1"/>
-      <c r="Y136" s="10"/>
+      <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
       <c r="AA136" s="1"/>
       <c r="AB136" s="1"/>
@@ -17143,7 +17148,7 @@
       <c r="V137" s="5"/>
       <c r="W137" s="1"/>
       <c r="X137" s="1"/>
-      <c r="Y137" s="10"/>
+      <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
       <c r="AA137" s="1"/>
       <c r="AB137" s="1"/>
@@ -17221,7 +17226,7 @@
       <c r="V138" s="5"/>
       <c r="W138" s="1"/>
       <c r="X138" s="1"/>
-      <c r="Y138" s="10"/>
+      <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
       <c r="AA138" s="1"/>
       <c r="AB138" s="1"/>
@@ -17299,7 +17304,7 @@
       <c r="V139" s="5"/>
       <c r="W139" s="1"/>
       <c r="X139" s="1"/>
-      <c r="Y139" s="10"/>
+      <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
       <c r="AA139" s="1"/>
       <c r="AB139" s="1"/>
@@ -17377,7 +17382,7 @@
       <c r="V140" s="5"/>
       <c r="W140" s="1"/>
       <c r="X140" s="1"/>
-      <c r="Y140" s="10"/>
+      <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
       <c r="AA140" s="1"/>
       <c r="AB140" s="1"/>
@@ -17435,7 +17440,7 @@
       <c r="V141" s="5"/>
       <c r="W141" s="1"/>
       <c r="X141" s="1"/>
-      <c r="Y141" s="10"/>
+      <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
       <c r="AA141" s="1"/>
       <c r="AB141" s="1"/>
@@ -17525,7 +17530,7 @@
         <v>331</v>
       </c>
       <c r="X142" s="1"/>
-      <c r="Y142" s="10" t="s">
+      <c r="Y142" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z142" s="1">
@@ -17643,7 +17648,7 @@
         <v>331</v>
       </c>
       <c r="X143" s="1"/>
-      <c r="Y143" s="10" t="s">
+      <c r="Y143" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z143" s="1">
@@ -17765,7 +17770,7 @@
         <v>331</v>
       </c>
       <c r="X144" s="1"/>
-      <c r="Y144" s="10" t="s">
+      <c r="Y144" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z144" s="1">
@@ -17855,7 +17860,7 @@
       <c r="V145" s="5"/>
       <c r="W145" s="1"/>
       <c r="X145" s="1"/>
-      <c r="Y145" s="10"/>
+      <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
       <c r="AA145" s="1"/>
       <c r="AB145" s="1"/>
@@ -17953,7 +17958,7 @@
         <v>331</v>
       </c>
       <c r="X146" s="1"/>
-      <c r="Y146" s="10" t="s">
+      <c r="Y146" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z146" s="1">
@@ -18069,7 +18074,7 @@
         <v>331</v>
       </c>
       <c r="X147" s="1"/>
-      <c r="Y147" s="10" t="s">
+      <c r="Y147" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z147" s="1">
@@ -18191,7 +18196,7 @@
         <v>331</v>
       </c>
       <c r="X148" s="1"/>
-      <c r="Y148" s="10" t="s">
+      <c r="Y148" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z148" s="1">
@@ -18283,7 +18288,7 @@
       <c r="V149" s="5"/>
       <c r="W149" s="1"/>
       <c r="X149" s="1"/>
-      <c r="Y149" s="10"/>
+      <c r="Y149" s="1"/>
       <c r="Z149" s="1" t="s">
         <v>124</v>
       </c>
@@ -18375,7 +18380,7 @@
         <v>331</v>
       </c>
       <c r="X150" s="1"/>
-      <c r="Y150" s="10" t="s">
+      <c r="Y150" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z150" s="1">
@@ -18489,7 +18494,7 @@
         <v>331</v>
       </c>
       <c r="X151" s="1"/>
-      <c r="Y151" s="10" t="s">
+      <c r="Y151" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z151" s="1">
@@ -18609,7 +18614,7 @@
         <v>331</v>
       </c>
       <c r="X152" s="1"/>
-      <c r="Y152" s="10" t="s">
+      <c r="Y152" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z152" s="1">
@@ -18699,7 +18704,7 @@
       <c r="V153" s="5"/>
       <c r="W153" s="1"/>
       <c r="X153" s="1"/>
-      <c r="Y153" s="10"/>
+      <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
       <c r="AA153" s="1"/>
       <c r="AB153" s="1"/>
@@ -18781,7 +18786,7 @@
       <c r="V154" s="5"/>
       <c r="W154" s="1"/>
       <c r="X154" s="1"/>
-      <c r="Y154" s="10"/>
+      <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
       <c r="AA154" s="1"/>
       <c r="AB154" s="1"/>
@@ -18859,7 +18864,7 @@
       <c r="V155" s="5"/>
       <c r="W155" s="1"/>
       <c r="X155" s="1"/>
-      <c r="Y155" s="10"/>
+      <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
       <c r="AA155" s="1"/>
       <c r="AB155" s="1"/>
@@ -18937,7 +18942,7 @@
       <c r="V156" s="5"/>
       <c r="W156" s="1"/>
       <c r="X156" s="1"/>
-      <c r="Y156" s="10"/>
+      <c r="Y156" s="1"/>
       <c r="Z156" s="1"/>
       <c r="AA156" s="1"/>
       <c r="AB156" s="1"/>
@@ -18997,7 +19002,7 @@
       <c r="V157" s="5"/>
       <c r="W157" s="1"/>
       <c r="X157" s="1"/>
-      <c r="Y157" s="10"/>
+      <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
       <c r="AA157" s="1"/>
       <c r="AB157" s="1"/>
@@ -19075,7 +19080,7 @@
       <c r="V158" s="5"/>
       <c r="W158" s="1"/>
       <c r="X158" s="1"/>
-      <c r="Y158" s="10"/>
+      <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
       <c r="AA158" s="1"/>
       <c r="AB158" s="1"/>
@@ -19153,7 +19158,7 @@
       <c r="V159" s="5"/>
       <c r="W159" s="1"/>
       <c r="X159" s="1"/>
-      <c r="Y159" s="10"/>
+      <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
       <c r="AA159" s="1"/>
       <c r="AB159" s="1"/>
@@ -19231,7 +19236,7 @@
       <c r="V160" s="5"/>
       <c r="W160" s="1"/>
       <c r="X160" s="1"/>
-      <c r="Y160" s="10"/>
+      <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
       <c r="AA160" s="1"/>
       <c r="AB160" s="1"/>
@@ -19289,7 +19294,7 @@
       <c r="V161" s="5"/>
       <c r="W161" s="1"/>
       <c r="X161" s="1"/>
-      <c r="Y161" s="10"/>
+      <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
       <c r="AA161" s="1"/>
       <c r="AB161" s="1"/>
@@ -19377,7 +19382,7 @@
         <v>331</v>
       </c>
       <c r="X162" s="1"/>
-      <c r="Y162" s="10" t="s">
+      <c r="Y162" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z162" s="1">
@@ -19493,7 +19498,7 @@
         <v>331</v>
       </c>
       <c r="X163" s="1"/>
-      <c r="Y163" s="10" t="s">
+      <c r="Y163" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z163" s="1">
@@ -19615,7 +19620,7 @@
         <v>331</v>
       </c>
       <c r="X164" s="1"/>
-      <c r="Y164" s="10" t="s">
+      <c r="Y164" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z164" s="1">
@@ -19709,7 +19714,7 @@
       <c r="V165" s="5"/>
       <c r="W165" s="1"/>
       <c r="X165" s="1"/>
-      <c r="Y165" s="10"/>
+      <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
       <c r="AA165" s="1"/>
       <c r="AB165" s="1"/>
@@ -19791,7 +19796,7 @@
       <c r="V166" s="5"/>
       <c r="W166" s="1"/>
       <c r="X166" s="1"/>
-      <c r="Y166" s="10"/>
+      <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
       <c r="AA166" s="1"/>
       <c r="AB166" s="1"/>
@@ -19869,7 +19874,7 @@
       <c r="V167" s="5"/>
       <c r="W167" s="1"/>
       <c r="X167" s="1"/>
-      <c r="Y167" s="10"/>
+      <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
       <c r="AA167" s="1"/>
       <c r="AB167" s="1"/>
@@ -19947,7 +19952,7 @@
       <c r="V168" s="5"/>
       <c r="W168" s="1"/>
       <c r="X168" s="1"/>
-      <c r="Y168" s="10"/>
+      <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
       <c r="AA168" s="1"/>
       <c r="AB168" s="1"/>
@@ -20005,7 +20010,7 @@
       <c r="V169" s="5"/>
       <c r="W169" s="1"/>
       <c r="X169" s="1"/>
-      <c r="Y169" s="10"/>
+      <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
       <c r="AA169" s="1"/>
       <c r="AB169" s="1"/>
@@ -20093,7 +20098,7 @@
         <v>331</v>
       </c>
       <c r="X170" s="1"/>
-      <c r="Y170" s="10" t="s">
+      <c r="Y170" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z170" s="1">
@@ -20203,7 +20208,7 @@
         <v>331</v>
       </c>
       <c r="X171" s="1"/>
-      <c r="Y171" s="10" t="s">
+      <c r="Y171" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z171" s="1">
@@ -20315,7 +20320,7 @@
         <v>331</v>
       </c>
       <c r="X172" s="1"/>
-      <c r="Y172" s="10" t="s">
+      <c r="Y172" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z172" s="1">
@@ -20395,7 +20400,7 @@
       <c r="V173" s="5"/>
       <c r="W173" s="1"/>
       <c r="X173" s="1"/>
-      <c r="Y173" s="10"/>
+      <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
       <c r="AA173" s="1"/>
       <c r="AB173" s="1"/>
@@ -20487,7 +20492,7 @@
         <v>331</v>
       </c>
       <c r="X174" s="1"/>
-      <c r="Y174" s="10" t="s">
+      <c r="Y174" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z174" s="1">
@@ -20607,7 +20612,7 @@
         <v>331</v>
       </c>
       <c r="X175" s="1"/>
-      <c r="Y175" s="10" t="s">
+      <c r="Y175" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z175" s="1">
@@ -20731,7 +20736,7 @@
         <v>331</v>
       </c>
       <c r="X176" s="1"/>
-      <c r="Y176" s="10" t="s">
+      <c r="Y176" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z176" s="1">
@@ -20819,7 +20824,7 @@
       <c r="V177" s="5"/>
       <c r="W177" s="1"/>
       <c r="X177" s="1"/>
-      <c r="Y177" s="10"/>
+      <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
       <c r="AA177" s="1"/>
       <c r="AB177" s="1"/>
@@ -20901,7 +20906,7 @@
       <c r="V178" s="5"/>
       <c r="W178" s="1"/>
       <c r="X178" s="1"/>
-      <c r="Y178" s="10"/>
+      <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
       <c r="AA178" s="1"/>
       <c r="AB178" s="1"/>
@@ -20979,7 +20984,7 @@
       <c r="V179" s="5"/>
       <c r="W179" s="1"/>
       <c r="X179" s="1"/>
-      <c r="Y179" s="10"/>
+      <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
       <c r="AA179" s="1"/>
       <c r="AB179" s="1"/>
@@ -21057,7 +21062,7 @@
       <c r="V180" s="5"/>
       <c r="W180" s="1"/>
       <c r="X180" s="1"/>
-      <c r="Y180" s="10"/>
+      <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
       <c r="AA180" s="1"/>
       <c r="AB180" s="1"/>
@@ -21115,7 +21120,7 @@
       <c r="V181" s="5"/>
       <c r="W181" s="1"/>
       <c r="X181" s="1"/>
-      <c r="Y181" s="10"/>
+      <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
       <c r="AA181" s="1"/>
       <c r="AB181" s="1"/>
@@ -21191,7 +21196,7 @@
       <c r="V182" s="5"/>
       <c r="W182" s="1"/>
       <c r="X182" s="1"/>
-      <c r="Y182" s="10"/>
+      <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
       <c r="AA182" s="1"/>
       <c r="AB182" s="1"/>
@@ -21285,7 +21290,7 @@
       <c r="X183" s="1">
         <v>0.01</v>
       </c>
-      <c r="Y183" s="10" t="s">
+      <c r="Y183" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z183" s="1">
@@ -21407,7 +21412,7 @@
       <c r="X184" s="1">
         <v>0.01</v>
       </c>
-      <c r="Y184" s="10" t="s">
+      <c r="Y184" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z184" s="1">
@@ -21535,7 +21540,7 @@
       <c r="X185" s="1">
         <v>0.01</v>
       </c>
-      <c r="Y185" s="10" t="s">
+      <c r="Y185" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z185" s="1">
@@ -21629,7 +21634,7 @@
       <c r="V186" s="5"/>
       <c r="W186" s="1"/>
       <c r="X186" s="1"/>
-      <c r="Y186" s="10"/>
+      <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
       <c r="AA186" s="1"/>
       <c r="AB186" s="1"/>
@@ -21721,7 +21726,7 @@
         <v>331</v>
       </c>
       <c r="X187" s="1"/>
-      <c r="Y187" s="10" t="s">
+      <c r="Y187" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z187" s="1">
@@ -21839,7 +21844,7 @@
         <v>331</v>
       </c>
       <c r="X188" s="1"/>
-      <c r="Y188" s="10" t="s">
+      <c r="Y188" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z188" s="1">
@@ -21955,7 +21960,7 @@
         <v>331</v>
       </c>
       <c r="X189" s="1"/>
-      <c r="Y189" s="10" t="s">
+      <c r="Y189" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z189" s="1">
@@ -22041,7 +22046,7 @@
       <c r="V190" s="5"/>
       <c r="W190" s="1"/>
       <c r="X190" s="1"/>
-      <c r="Y190" s="10"/>
+      <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
       <c r="AA190" s="1" t="s">
         <v>124</v>
@@ -22137,7 +22142,7 @@
         <v>331</v>
       </c>
       <c r="X191" s="1"/>
-      <c r="Y191" s="10" t="s">
+      <c r="Y191" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z191" s="1">
@@ -22257,7 +22262,7 @@
       <c r="X192" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y192" s="10" t="s">
+      <c r="Y192" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z192" s="1" t="s">
@@ -22371,7 +22376,7 @@
       <c r="V193" s="5"/>
       <c r="W193" s="1"/>
       <c r="X193" s="1"/>
-      <c r="Y193" s="10"/>
+      <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
       <c r="AA193" s="1"/>
       <c r="AB193" s="1"/>
@@ -22461,7 +22466,7 @@
         <v>331</v>
       </c>
       <c r="X194" s="1"/>
-      <c r="Y194" s="10" t="s">
+      <c r="Y194" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z194" s="1">
@@ -22555,7 +22560,7 @@
       <c r="V195" s="5"/>
       <c r="W195" s="1"/>
       <c r="X195" s="1"/>
-      <c r="Y195" s="10"/>
+      <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
       <c r="AA195" s="1"/>
       <c r="AB195" s="1"/>
@@ -22641,7 +22646,7 @@
       <c r="V196" s="5"/>
       <c r="W196" s="1"/>
       <c r="X196" s="1"/>
-      <c r="Y196" s="10"/>
+      <c r="Y196" s="1"/>
       <c r="Z196" s="1"/>
       <c r="AA196" s="1"/>
       <c r="AB196" s="1"/>
@@ -22719,7 +22724,7 @@
       <c r="V197" s="5"/>
       <c r="W197" s="1"/>
       <c r="X197" s="1"/>
-      <c r="Y197" s="10"/>
+      <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
       <c r="AA197" s="1"/>
       <c r="AB197" s="1"/>
@@ -22797,7 +22802,7 @@
       <c r="V198" s="5"/>
       <c r="W198" s="1"/>
       <c r="X198" s="1"/>
-      <c r="Y198" s="10"/>
+      <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
       <c r="AA198" s="1"/>
       <c r="AB198" s="1"/>
@@ -22857,7 +22862,7 @@
       <c r="V199" s="5"/>
       <c r="W199" s="1"/>
       <c r="X199" s="1"/>
-      <c r="Y199" s="10"/>
+      <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
       <c r="AA199" s="1"/>
       <c r="AB199" s="1"/>
@@ -22935,7 +22940,7 @@
       <c r="V200" s="5"/>
       <c r="W200" s="1"/>
       <c r="X200" s="1"/>
-      <c r="Y200" s="10"/>
+      <c r="Y200" s="1"/>
       <c r="Z200" s="1"/>
       <c r="AA200" s="1"/>
       <c r="AB200" s="1"/>
@@ -23013,7 +23018,7 @@
       <c r="V201" s="5"/>
       <c r="W201" s="1"/>
       <c r="X201" s="1"/>
-      <c r="Y201" s="10"/>
+      <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
       <c r="AA201" s="1"/>
       <c r="AB201" s="1"/>
@@ -23091,7 +23096,7 @@
       <c r="V202" s="5"/>
       <c r="W202" s="1"/>
       <c r="X202" s="1"/>
-      <c r="Y202" s="10"/>
+      <c r="Y202" s="1"/>
       <c r="Z202" s="1"/>
       <c r="AA202" s="1"/>
       <c r="AB202" s="1"/>
@@ -23149,7 +23154,7 @@
       <c r="V203" s="5"/>
       <c r="W203" s="1"/>
       <c r="X203" s="1"/>
-      <c r="Y203" s="10"/>
+      <c r="Y203" s="1"/>
       <c r="Z203" s="1"/>
       <c r="AA203" s="1"/>
       <c r="AB203" s="1"/>
@@ -23227,7 +23232,7 @@
       <c r="V204" s="5"/>
       <c r="W204" s="1"/>
       <c r="X204" s="1"/>
-      <c r="Y204" s="10"/>
+      <c r="Y204" s="1"/>
       <c r="Z204" s="1"/>
       <c r="AA204" s="1"/>
       <c r="AB204" s="1"/>
@@ -23305,7 +23310,7 @@
       <c r="V205" s="5"/>
       <c r="W205" s="1"/>
       <c r="X205" s="1"/>
-      <c r="Y205" s="10"/>
+      <c r="Y205" s="1"/>
       <c r="Z205" s="1"/>
       <c r="AA205" s="1"/>
       <c r="AB205" s="1"/>
@@ -23383,7 +23388,7 @@
       <c r="V206" s="5"/>
       <c r="W206" s="1"/>
       <c r="X206" s="1"/>
-      <c r="Y206" s="10"/>
+      <c r="Y206" s="1"/>
       <c r="Z206" s="1"/>
       <c r="AA206" s="1"/>
       <c r="AB206" s="1"/>
@@ -23441,7 +23446,7 @@
       <c r="V207" s="5"/>
       <c r="W207" s="1"/>
       <c r="X207" s="1"/>
-      <c r="Y207" s="10"/>
+      <c r="Y207" s="1"/>
       <c r="Z207" s="1"/>
       <c r="AA207" s="1"/>
       <c r="AB207" s="1"/>
@@ -23531,7 +23536,7 @@
         <v>331</v>
       </c>
       <c r="X208" s="1"/>
-      <c r="Y208" s="10" t="s">
+      <c r="Y208" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z208" s="1">
@@ -23647,7 +23652,7 @@
         <v>331</v>
       </c>
       <c r="X209" s="1"/>
-      <c r="Y209" s="10" t="s">
+      <c r="Y209" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z209" s="1">
@@ -23769,7 +23774,7 @@
         <v>331</v>
       </c>
       <c r="X210" s="1"/>
-      <c r="Y210" s="10" t="s">
+      <c r="Y210" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z210" s="1">
@@ -23857,7 +23862,7 @@
       <c r="V211" s="5"/>
       <c r="W211" s="1"/>
       <c r="X211" s="1"/>
-      <c r="Y211" s="10"/>
+      <c r="Y211" s="1"/>
       <c r="Z211" s="1"/>
       <c r="AA211" s="1"/>
       <c r="AB211" s="1"/>
@@ -23951,7 +23956,7 @@
         <v>111</v>
       </c>
       <c r="X212" s="1"/>
-      <c r="Y212" s="10" t="s">
+      <c r="Y212" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z212" s="1">
@@ -24065,7 +24070,7 @@
         <v>111</v>
       </c>
       <c r="X213" s="1"/>
-      <c r="Y213" s="10" t="s">
+      <c r="Y213" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z213" s="1">
@@ -24179,7 +24184,7 @@
         <v>111</v>
       </c>
       <c r="X214" s="1"/>
-      <c r="Y214" s="10" t="s">
+      <c r="Y214" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z214" s="1">
@@ -24261,7 +24266,7 @@
       <c r="V215" s="5"/>
       <c r="W215" s="1"/>
       <c r="X215" s="1"/>
-      <c r="Y215" s="10"/>
+      <c r="Y215" s="1"/>
       <c r="Z215" s="1"/>
       <c r="AA215" s="1"/>
       <c r="AB215" s="1"/>
@@ -24359,7 +24364,7 @@
       <c r="X216" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y216" s="10" t="s">
+      <c r="Y216" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z216" s="1">
@@ -24479,7 +24484,7 @@
       <c r="X217" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y217" s="10" t="s">
+      <c r="Y217" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z217" s="1">
@@ -24595,7 +24600,7 @@
       <c r="X218" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y218" s="10" t="s">
+      <c r="Y218" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z218" s="1">
@@ -24677,7 +24682,7 @@
       <c r="V219" s="5"/>
       <c r="W219" s="1"/>
       <c r="X219" s="1"/>
-      <c r="Y219" s="10"/>
+      <c r="Y219" s="1"/>
       <c r="Z219" s="1" t="s">
         <v>579</v>
       </c>
@@ -24781,7 +24786,7 @@
       <c r="X220" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y220" s="10" t="s">
+      <c r="Y220" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z220" s="1">
@@ -24901,7 +24906,7 @@
       <c r="X221" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y221" s="10" t="s">
+      <c r="Y221" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z221" s="1">
@@ -25027,7 +25032,7 @@
       <c r="X222" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y222" s="10" t="s">
+      <c r="Y222" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z222" s="1">
@@ -25115,7 +25120,7 @@
       <c r="V223" s="5"/>
       <c r="W223" s="1"/>
       <c r="X223" s="1"/>
-      <c r="Y223" s="10"/>
+      <c r="Y223" s="1"/>
       <c r="Z223" s="1"/>
       <c r="AA223" s="1"/>
       <c r="AB223" s="1"/>
@@ -25221,7 +25226,7 @@
       <c r="X224" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y224" s="10" t="s">
+      <c r="Y224" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z224" s="1">
@@ -25345,7 +25350,7 @@
       <c r="X225" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y225" s="10" t="s">
+      <c r="Y225" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z225" s="1">
@@ -25477,7 +25482,7 @@
       <c r="X226" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y226" s="10" t="s">
+      <c r="Y226" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z226" s="1">
@@ -25575,7 +25580,7 @@
       <c r="V227" s="5"/>
       <c r="W227" s="1"/>
       <c r="X227" s="1"/>
-      <c r="Y227" s="10"/>
+      <c r="Y227" s="1"/>
       <c r="Z227" s="1"/>
       <c r="AA227" s="1"/>
       <c r="AB227" s="1"/>
@@ -25679,7 +25684,7 @@
       <c r="X228" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y228" s="10" t="s">
+      <c r="Y228" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z228" s="1">
@@ -25805,7 +25810,7 @@
       <c r="X229" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y229" s="10" t="s">
+      <c r="Y229" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z229" s="1">
@@ -25927,7 +25932,7 @@
       <c r="X230" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y230" s="10" t="s">
+      <c r="Y230" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z230" s="1">
@@ -26011,7 +26016,7 @@
       <c r="V231" s="5"/>
       <c r="W231" s="1"/>
       <c r="X231" s="1"/>
-      <c r="Y231" s="10"/>
+      <c r="Y231" s="1"/>
       <c r="Z231" s="1"/>
       <c r="AA231" s="1"/>
       <c r="AB231" s="1"/>
@@ -26087,7 +26092,7 @@
       <c r="X232" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y232" s="10"/>
+      <c r="Y232" s="1"/>
       <c r="Z232" s="1"/>
       <c r="AA232" s="1"/>
       <c r="AB232" s="1"/>
@@ -26171,7 +26176,7 @@
       <c r="X233" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y233" s="10"/>
+      <c r="Y233" s="1"/>
       <c r="Z233" s="1"/>
       <c r="AA233" s="1"/>
       <c r="AB233" s="1"/>
@@ -26237,7 +26242,7 @@
       <c r="V234" s="5"/>
       <c r="W234" s="1"/>
       <c r="X234" s="1"/>
-      <c r="Y234" s="10"/>
+      <c r="Y234" s="1"/>
       <c r="Z234" s="1"/>
       <c r="AA234" s="1"/>
       <c r="AB234" s="1"/>
@@ -26297,7 +26302,7 @@
       <c r="V235" s="5"/>
       <c r="W235" s="1"/>
       <c r="X235" s="1"/>
-      <c r="Y235" s="10"/>
+      <c r="Y235" s="1"/>
       <c r="Z235" s="1"/>
       <c r="AA235" s="1"/>
       <c r="AB235" s="1"/>
@@ -26391,7 +26396,7 @@
       <c r="X236" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y236" s="10" t="s">
+      <c r="Y236" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z236" s="1">
@@ -26513,7 +26518,7 @@
       <c r="X237" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y237" s="10" t="s">
+      <c r="Y237" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z237" s="1">
@@ -26637,7 +26642,7 @@
       <c r="X238" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y238" s="10" t="s">
+      <c r="Y238" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z238" s="1">
@@ -26725,7 +26730,7 @@
       <c r="V239" s="5"/>
       <c r="W239" s="1"/>
       <c r="X239" s="1"/>
-      <c r="Y239" s="10"/>
+      <c r="Y239" s="1"/>
       <c r="Z239" s="1"/>
       <c r="AA239" s="1" t="s">
         <v>633</v>
@@ -26815,7 +26820,7 @@
       <c r="X240" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y240" s="10"/>
+      <c r="Y240" s="1"/>
       <c r="Z240" s="1"/>
       <c r="AA240" s="1"/>
       <c r="AB240" s="1"/>
@@ -26897,7 +26902,7 @@
       <c r="X241" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y241" s="10"/>
+      <c r="Y241" s="1"/>
       <c r="Z241" s="1"/>
       <c r="AA241" s="1"/>
       <c r="AB241" s="1"/>
@@ -26977,7 +26982,7 @@
       <c r="V242" s="5"/>
       <c r="W242" s="1"/>
       <c r="X242" s="1"/>
-      <c r="Y242" s="10"/>
+      <c r="Y242" s="1"/>
       <c r="Z242" s="1"/>
       <c r="AA242" s="1"/>
       <c r="AB242" s="1"/>
@@ -27035,7 +27040,7 @@
       <c r="V243" s="5"/>
       <c r="W243" s="1"/>
       <c r="X243" s="1"/>
-      <c r="Y243" s="10"/>
+      <c r="Y243" s="1"/>
       <c r="Z243" s="1"/>
       <c r="AA243" s="1"/>
       <c r="AB243" s="1"/>
@@ -27129,7 +27134,7 @@
       <c r="X244" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y244" s="10" t="s">
+      <c r="Y244" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z244" s="1">
@@ -27249,7 +27254,7 @@
       <c r="X245" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y245" s="10" t="s">
+      <c r="Y245" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z245" s="1">
@@ -27373,7 +27378,7 @@
       <c r="X246" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y246" s="10" t="s">
+      <c r="Y246" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z246" s="1">
@@ -27461,7 +27466,7 @@
       <c r="V247" s="5"/>
       <c r="W247" s="1"/>
       <c r="X247" s="1"/>
-      <c r="Y247" s="10"/>
+      <c r="Y247" s="1"/>
       <c r="Z247" s="1"/>
       <c r="AA247" s="1"/>
       <c r="AB247" s="1"/>
@@ -27563,7 +27568,7 @@
       <c r="X248" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y248" s="10" t="s">
+      <c r="Y248" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z248" s="1">
@@ -27681,7 +27686,7 @@
       <c r="X249" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y249" s="10" t="s">
+      <c r="Y249" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z249" s="1">
@@ -27805,7 +27810,7 @@
       <c r="X250" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y250" s="10" t="s">
+      <c r="Y250" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z250" s="1">
@@ -27891,7 +27896,7 @@
       <c r="V251" s="5"/>
       <c r="W251" s="1"/>
       <c r="X251" s="1"/>
-      <c r="Y251" s="10"/>
+      <c r="Y251" s="1"/>
       <c r="Z251" s="1"/>
       <c r="AA251" s="1"/>
       <c r="AB251" s="1"/>
@@ -27991,7 +27996,7 @@
       <c r="X252" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y252" s="10" t="s">
+      <c r="Y252" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z252" s="1">
@@ -28117,7 +28122,7 @@
       <c r="X253" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y253" s="10" t="s">
+      <c r="Y253" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z253" s="1">
@@ -28241,7 +28246,7 @@
       <c r="X254" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y254" s="10" t="s">
+      <c r="Y254" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z254" s="1">
@@ -28327,7 +28332,7 @@
       <c r="V255" s="5"/>
       <c r="W255" s="1"/>
       <c r="X255" s="1"/>
-      <c r="Y255" s="10"/>
+      <c r="Y255" s="1"/>
       <c r="Z255" s="1"/>
       <c r="AA255" s="1"/>
       <c r="AB255" s="1"/>
@@ -28425,7 +28430,7 @@
       <c r="X256" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y256" s="10" t="s">
+      <c r="Y256" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z256" s="1">
@@ -28547,7 +28552,7 @@
       <c r="X257" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y257" s="10" t="s">
+      <c r="Y257" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z257" s="1">
@@ -28667,7 +28672,7 @@
       <c r="X258" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y258" s="10" t="s">
+      <c r="Y258" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z258" s="1">
@@ -28751,7 +28756,7 @@
       <c r="V259" s="5"/>
       <c r="W259" s="1"/>
       <c r="X259" s="1"/>
-      <c r="Y259" s="10"/>
+      <c r="Y259" s="1"/>
       <c r="Z259" s="1"/>
       <c r="AA259" s="1"/>
       <c r="AB259" s="1"/>
@@ -28839,7 +28844,7 @@
       <c r="X260" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y260" s="10"/>
+      <c r="Y260" s="1"/>
       <c r="Z260" s="1"/>
       <c r="AA260" s="1"/>
       <c r="AB260" s="1"/>
@@ -28921,7 +28926,7 @@
       <c r="X261" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y261" s="10"/>
+      <c r="Y261" s="1"/>
       <c r="Z261" s="1"/>
       <c r="AA261" s="1"/>
       <c r="AB261" s="1"/>
@@ -29001,7 +29006,7 @@
       <c r="V262" s="5"/>
       <c r="W262" s="1"/>
       <c r="X262" s="1"/>
-      <c r="Y262" s="10"/>
+      <c r="Y262" s="1"/>
       <c r="Z262" s="1"/>
       <c r="AA262" s="1"/>
       <c r="AB262" s="1"/>
@@ -29061,7 +29066,7 @@
       <c r="V263" s="5"/>
       <c r="W263" s="1"/>
       <c r="X263" s="1"/>
-      <c r="Y263" s="10"/>
+      <c r="Y263" s="1"/>
       <c r="Z263" s="1"/>
       <c r="AA263" s="1"/>
       <c r="AB263" s="1"/>
@@ -29155,7 +29160,7 @@
       <c r="X264" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y264" s="10" t="s">
+      <c r="Y264" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z264" s="1">
@@ -29275,7 +29280,7 @@
       <c r="X265" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y265" s="10" t="s">
+      <c r="Y265" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z265" s="1">
@@ -29395,7 +29400,7 @@
       <c r="X266" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y266" s="10" t="s">
+      <c r="Y266" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z266" s="1">
@@ -29479,7 +29484,7 @@
       <c r="V267" s="5"/>
       <c r="W267" s="1"/>
       <c r="X267" s="1"/>
-      <c r="Y267" s="10"/>
+      <c r="Y267" s="1"/>
       <c r="Z267" s="1" t="s">
         <v>685</v>
       </c>
@@ -29573,7 +29578,7 @@
         <v>331</v>
       </c>
       <c r="X268" s="1"/>
-      <c r="Y268" s="10" t="s">
+      <c r="Y268" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z268" s="1">
@@ -29691,7 +29696,7 @@
       <c r="X269" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y269" s="10" t="s">
+      <c r="Y269" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z269" s="1">
@@ -29809,7 +29814,7 @@
       <c r="X270" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y270" s="10" t="s">
+      <c r="Y270" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z270" s="1">
@@ -29893,7 +29898,7 @@
       <c r="V271" s="5"/>
       <c r="W271" s="1"/>
       <c r="X271" s="1"/>
-      <c r="Y271" s="10"/>
+      <c r="Y271" s="1"/>
       <c r="Z271" s="1"/>
       <c r="AA271" s="1"/>
       <c r="AB271" s="1"/>
@@ -29973,7 +29978,7 @@
       <c r="X272" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y272" s="10"/>
+      <c r="Y272" s="1"/>
       <c r="Z272" s="1"/>
       <c r="AA272" s="1"/>
       <c r="AB272" s="1"/>
@@ -30063,7 +30068,7 @@
         <v>331</v>
       </c>
       <c r="X273" s="1"/>
-      <c r="Y273" s="10" t="s">
+      <c r="Y273" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z273" s="1">
@@ -30185,7 +30190,7 @@
       <c r="X274" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y274" s="10" t="s">
+      <c r="Y274" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z274" s="1">
@@ -30311,7 +30316,7 @@
       <c r="X275" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y275" s="10" t="s">
+      <c r="Y275" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z275" s="1">
@@ -30405,7 +30410,7 @@
       <c r="V276" s="5"/>
       <c r="W276" s="1"/>
       <c r="X276" s="1"/>
-      <c r="Y276" s="10"/>
+      <c r="Y276" s="1"/>
       <c r="Z276" s="1"/>
       <c r="AA276" s="1"/>
       <c r="AB276" s="1"/>
@@ -30489,7 +30494,7 @@
       <c r="X277" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y277" s="10"/>
+      <c r="Y277" s="1"/>
       <c r="Z277" s="1"/>
       <c r="AA277" s="1"/>
       <c r="AB277" s="1"/>
@@ -30571,7 +30576,7 @@
       <c r="X278" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y278" s="10"/>
+      <c r="Y278" s="1"/>
       <c r="Z278" s="1"/>
       <c r="AA278" s="1"/>
       <c r="AB278" s="1"/>
@@ -30651,7 +30656,7 @@
       <c r="V279" s="5"/>
       <c r="W279" s="1"/>
       <c r="X279" s="1"/>
-      <c r="Y279" s="10"/>
+      <c r="Y279" s="1"/>
       <c r="Z279" s="1"/>
       <c r="AA279" s="1"/>
       <c r="AB279" s="1"/>
@@ -30709,7 +30714,7 @@
       <c r="V280" s="5"/>
       <c r="W280" s="1"/>
       <c r="X280" s="1"/>
-      <c r="Y280" s="10"/>
+      <c r="Y280" s="1"/>
       <c r="Z280" s="1"/>
       <c r="AA280" s="1"/>
       <c r="AB280" s="1"/>
@@ -30801,7 +30806,7 @@
       <c r="X281" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y281" s="10" t="s">
+      <c r="Y281" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z281" s="1">
@@ -30919,7 +30924,7 @@
       <c r="X282" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y282" s="10" t="s">
+      <c r="Y282" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z282" s="1">
@@ -31037,7 +31042,7 @@
       <c r="X283" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y283" s="10" t="s">
+      <c r="Y283" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z283" s="1">
@@ -31123,7 +31128,7 @@
       <c r="V284" s="5"/>
       <c r="W284" s="1"/>
       <c r="X284" s="1"/>
-      <c r="Y284" s="10"/>
+      <c r="Y284" s="1"/>
       <c r="Z284" s="1"/>
       <c r="AA284" s="1"/>
       <c r="AB284" s="1"/>
@@ -31217,7 +31222,7 @@
       <c r="X285" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y285" s="10" t="s">
+      <c r="Y285" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z285" s="1">
@@ -31333,7 +31338,7 @@
       <c r="X286" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y286" s="10" t="s">
+      <c r="Y286" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z286" s="1">
@@ -31455,7 +31460,7 @@
       <c r="X287" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y287" s="10" t="s">
+      <c r="Y287" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z287" s="1">
@@ -31543,7 +31548,7 @@
       <c r="V288" s="5"/>
       <c r="W288" s="1"/>
       <c r="X288" s="1"/>
-      <c r="Y288" s="10"/>
+      <c r="Y288" s="1"/>
       <c r="Z288" s="1"/>
       <c r="AA288" s="1"/>
       <c r="AB288" s="1"/>
@@ -31627,7 +31632,7 @@
       <c r="X289" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y289" s="10"/>
+      <c r="Y289" s="1"/>
       <c r="Z289" s="1"/>
       <c r="AA289" s="1"/>
       <c r="AB289" s="1"/>
@@ -31709,7 +31714,7 @@
       <c r="X290" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y290" s="10"/>
+      <c r="Y290" s="1"/>
       <c r="Z290" s="1"/>
       <c r="AA290" s="1"/>
       <c r="AB290" s="1"/>
@@ -31789,7 +31794,7 @@
       <c r="V291" s="5"/>
       <c r="W291" s="1"/>
       <c r="X291" s="1"/>
-      <c r="Y291" s="10"/>
+      <c r="Y291" s="1"/>
       <c r="Z291" s="1"/>
       <c r="AA291" s="1"/>
       <c r="AB291" s="1"/>
@@ -31847,7 +31852,7 @@
       <c r="V292" s="5"/>
       <c r="W292" s="1"/>
       <c r="X292" s="1"/>
-      <c r="Y292" s="10"/>
+      <c r="Y292" s="1"/>
       <c r="Z292" s="1"/>
       <c r="AA292" s="1"/>
       <c r="AB292" s="1"/>
@@ -31929,7 +31934,7 @@
       <c r="X293" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y293" s="10"/>
+      <c r="Y293" s="1"/>
       <c r="Z293" s="1"/>
       <c r="AA293" s="1"/>
       <c r="AB293" s="1"/>
@@ -32011,7 +32016,7 @@
       <c r="X294" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y294" s="10"/>
+      <c r="Y294" s="1"/>
       <c r="Z294" s="1"/>
       <c r="AA294" s="1"/>
       <c r="AB294" s="1"/>
@@ -32091,7 +32096,7 @@
       <c r="V295" s="5"/>
       <c r="W295" s="1"/>
       <c r="X295" s="1"/>
-      <c r="Y295" s="10"/>
+      <c r="Y295" s="1"/>
       <c r="Z295" s="1"/>
       <c r="AA295" s="1"/>
       <c r="AB295" s="1"/>
@@ -32149,7 +32154,7 @@
       <c r="V296" s="5"/>
       <c r="W296" s="1"/>
       <c r="X296" s="1"/>
-      <c r="Y296" s="10"/>
+      <c r="Y296" s="1"/>
       <c r="Z296" s="1"/>
       <c r="AA296" s="1"/>
       <c r="AB296" s="1"/>
@@ -32245,7 +32250,7 @@
       <c r="X297" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y297" s="10" t="s">
+      <c r="Y297" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z297" s="1">
@@ -32369,7 +32374,7 @@
       <c r="X298" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y298" s="10" t="s">
+      <c r="Y298" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z298" s="1">
@@ -32497,7 +32502,7 @@
       <c r="X299" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y299" s="10" t="s">
+      <c r="Y299" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z299" s="1">
@@ -32587,7 +32592,7 @@
       <c r="V300" s="5"/>
       <c r="W300" s="1"/>
       <c r="X300" s="1"/>
-      <c r="Y300" s="10"/>
+      <c r="Y300" s="1"/>
       <c r="Z300" s="1"/>
       <c r="AA300" s="1" t="s">
         <v>740</v>
@@ -32689,7 +32694,7 @@
       <c r="X301" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y301" s="10" t="s">
+      <c r="Y301" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z301" s="1">
@@ -32807,7 +32812,7 @@
       <c r="X302" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y302" s="10" t="s">
+      <c r="Y302" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z302" s="1">
@@ -32923,7 +32928,7 @@
       <c r="X303" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y303" s="10" t="s">
+      <c r="Y303" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z303" s="1">
@@ -33005,7 +33010,7 @@
       <c r="V304" s="5"/>
       <c r="W304" s="1"/>
       <c r="X304" s="1"/>
-      <c r="Y304" s="10"/>
+      <c r="Y304" s="1"/>
       <c r="Z304" s="1"/>
       <c r="AA304" s="1"/>
       <c r="AB304" s="1"/>
@@ -33087,7 +33092,7 @@
       <c r="X305" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y305" s="10"/>
+      <c r="Y305" s="1"/>
       <c r="Z305" s="1"/>
       <c r="AA305" s="1"/>
       <c r="AB305" s="1"/>
@@ -33169,7 +33174,7 @@
       <c r="X306" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y306" s="10"/>
+      <c r="Y306" s="1"/>
       <c r="Z306" s="1"/>
       <c r="AA306" s="1"/>
       <c r="AB306" s="1"/>
@@ -33249,7 +33254,7 @@
       <c r="V307" s="5"/>
       <c r="W307" s="1"/>
       <c r="X307" s="1"/>
-      <c r="Y307" s="10"/>
+      <c r="Y307" s="1"/>
       <c r="Z307" s="1"/>
       <c r="AA307" s="1"/>
       <c r="AB307" s="1"/>
@@ -33311,7 +33316,7 @@
       <c r="V308" s="5"/>
       <c r="W308" s="1"/>
       <c r="X308" s="1"/>
-      <c r="Y308" s="10"/>
+      <c r="Y308" s="1"/>
       <c r="Z308" s="1"/>
       <c r="AA308" s="1"/>
       <c r="AB308" s="1"/>
@@ -33405,7 +33410,7 @@
       <c r="X309" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y309" s="10" t="s">
+      <c r="Y309" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z309" s="1">
@@ -33519,7 +33524,7 @@
         <v>331</v>
       </c>
       <c r="X310" s="1"/>
-      <c r="Y310" s="10" t="s">
+      <c r="Y310" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z310" s="1">
@@ -33637,7 +33642,7 @@
       <c r="X311" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y311" s="10"/>
+      <c r="Y311" s="1"/>
       <c r="Z311" s="1"/>
       <c r="AA311" s="1"/>
       <c r="AB311" s="1"/>
@@ -33727,7 +33732,7 @@
         <v>331</v>
       </c>
       <c r="X312" s="1"/>
-      <c r="Y312" s="10" t="s">
+      <c r="Y312" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z312" s="1">
@@ -33811,7 +33816,7 @@
       <c r="V313" s="5"/>
       <c r="W313" s="1"/>
       <c r="X313" s="1"/>
-      <c r="Y313" s="10"/>
+      <c r="Y313" s="1"/>
       <c r="Z313" s="1" t="s">
         <v>759</v>
       </c>
@@ -33909,7 +33914,7 @@
       <c r="X314" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y314" s="10" t="s">
+      <c r="Y314" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z314" s="1">
@@ -34018,7 +34023,7 @@
         <v>331</v>
       </c>
       <c r="X315" s="1"/>
-      <c r="Y315" s="10" t="s">
+      <c r="Y315" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z315" s="1">
@@ -34130,7 +34135,7 @@
       <c r="X316" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y316" s="10"/>
+      <c r="Y316" s="1"/>
       <c r="Z316" s="1"/>
       <c r="AA316" s="1"/>
       <c r="AB316" s="1"/>
@@ -34220,7 +34225,7 @@
       <c r="X317" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y317" s="10" t="s">
+      <c r="Y317" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z317" s="1">
@@ -34304,7 +34309,7 @@
       <c r="V318" s="5"/>
       <c r="W318" s="1"/>
       <c r="X318" s="1"/>
-      <c r="Y318" s="10"/>
+      <c r="Y318" s="1"/>
       <c r="Z318" s="1" t="s">
         <v>769</v>
       </c>
@@ -34400,7 +34405,7 @@
       <c r="X319" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y319" s="10" t="s">
+      <c r="Y319" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z319" s="1">
@@ -34520,7 +34525,7 @@
       <c r="X320" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y320" s="10" t="s">
+      <c r="Y320" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z320" s="1">
@@ -34638,7 +34643,7 @@
       <c r="X321" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y321" s="10" t="s">
+      <c r="Y321" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z321" s="1">
@@ -34726,7 +34731,7 @@
       <c r="V322" s="5"/>
       <c r="W322" s="1"/>
       <c r="X322" s="1"/>
-      <c r="Y322" s="10"/>
+      <c r="Y322" s="1"/>
       <c r="Z322" s="1" t="s">
         <v>124</v>
       </c>
@@ -34822,7 +34827,7 @@
       <c r="X323" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y323" s="10" t="s">
+      <c r="Y323" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z323" s="1">
@@ -34948,7 +34953,7 @@
       <c r="X324" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y324" s="10" t="s">
+      <c r="Y324" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z324" s="1">
@@ -35074,7 +35079,7 @@
       <c r="X325" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y325" s="10" t="s">
+      <c r="Y325" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z325" s="1">
@@ -35162,7 +35167,7 @@
       <c r="V326" s="5"/>
       <c r="W326" s="1"/>
       <c r="X326" s="1"/>
-      <c r="Y326" s="10"/>
+      <c r="Y326" s="1"/>
       <c r="Z326" s="1"/>
       <c r="AA326" s="1"/>
       <c r="AB326" s="1"/>
@@ -35262,7 +35267,7 @@
       <c r="X327" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y327" s="10" t="s">
+      <c r="Y327" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z327" s="1">
@@ -35368,7 +35373,7 @@
       <c r="X328" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y328" s="10"/>
+      <c r="Y328" s="1"/>
       <c r="Z328" s="1"/>
       <c r="AA328" s="1"/>
       <c r="AB328" s="1"/>
@@ -35448,7 +35453,7 @@
       <c r="V329" s="5"/>
       <c r="W329" s="1"/>
       <c r="X329" s="1"/>
-      <c r="Y329" s="10"/>
+      <c r="Y329" s="1"/>
       <c r="Z329" s="1"/>
       <c r="AA329" s="1"/>
       <c r="AB329" s="1"/>
@@ -35508,7 +35513,7 @@
       <c r="V330" s="5"/>
       <c r="W330" s="1"/>
       <c r="X330" s="1"/>
-      <c r="Y330" s="10"/>
+      <c r="Y330" s="1"/>
       <c r="Z330" s="1"/>
       <c r="AA330" s="1"/>
       <c r="AB330" s="1"/>
@@ -35590,7 +35595,7 @@
       <c r="X331" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y331" s="10"/>
+      <c r="Y331" s="1"/>
       <c r="Z331" s="1"/>
       <c r="AA331" s="1"/>
       <c r="AB331" s="1"/>
@@ -35672,7 +35677,7 @@
       <c r="X332" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y332" s="10"/>
+      <c r="Y332" s="1"/>
       <c r="Z332" s="1"/>
       <c r="AA332" s="1"/>
       <c r="AB332" s="1"/>
@@ -35752,7 +35757,7 @@
       <c r="V333" s="5"/>
       <c r="W333" s="1"/>
       <c r="X333" s="1"/>
-      <c r="Y333" s="10"/>
+      <c r="Y333" s="1"/>
       <c r="Z333" s="1"/>
       <c r="AA333" s="1"/>
       <c r="AB333" s="1"/>
@@ -35810,7 +35815,7 @@
       <c r="V334" s="5"/>
       <c r="W334" s="1"/>
       <c r="X334" s="1"/>
-      <c r="Y334" s="10"/>
+      <c r="Y334" s="1"/>
       <c r="Z334" s="1"/>
       <c r="AA334" s="1"/>
       <c r="AB334" s="1"/>
@@ -35902,7 +35907,7 @@
       <c r="X335" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y335" s="10" t="s">
+      <c r="Y335" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z335" s="1">
@@ -36022,7 +36027,7 @@
       <c r="X336" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y336" s="10" t="s">
+      <c r="Y336" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z336" s="1">
@@ -36150,7 +36155,7 @@
       <c r="X337" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y337" s="10" t="s">
+      <c r="Y337" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z337" s="1">
@@ -36244,7 +36249,7 @@
       </c>
       <c r="W338" s="1"/>
       <c r="X338" s="1"/>
-      <c r="Y338" s="10"/>
+      <c r="Y338" s="1"/>
       <c r="Z338" s="1"/>
       <c r="AA338" s="1"/>
       <c r="AB338" s="1"/>
@@ -36346,7 +36351,7 @@
       <c r="X339" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y339" s="10" t="s">
+      <c r="Y339" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z339" s="1">
@@ -36472,7 +36477,7 @@
       <c r="X340" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y340" s="10" t="s">
+      <c r="Y340" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z340" s="1">
@@ -36596,7 +36601,7 @@
       <c r="X341" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y341" s="10" t="s">
+      <c r="Y341" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z341" s="1">
@@ -36680,7 +36685,7 @@
       <c r="V342" s="5"/>
       <c r="W342" s="1"/>
       <c r="X342" s="1"/>
-      <c r="Y342" s="10"/>
+      <c r="Y342" s="1"/>
       <c r="Z342" s="1"/>
       <c r="AA342" s="1"/>
       <c r="AB342" s="1"/>
@@ -36784,7 +36789,7 @@
       <c r="X343" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y343" s="10" t="s">
+      <c r="Y343" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z343" s="1">
@@ -36906,7 +36911,7 @@
       <c r="X344" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y344" s="10" t="s">
+      <c r="Y344" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z344" s="1">
@@ -37036,7 +37041,7 @@
       <c r="X345" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y345" s="10" t="s">
+      <c r="Y345" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z345" s="1">
@@ -37126,7 +37131,7 @@
       <c r="V346" s="5"/>
       <c r="W346" s="1"/>
       <c r="X346" s="1"/>
-      <c r="Y346" s="10"/>
+      <c r="Y346" s="1"/>
       <c r="Z346" s="1"/>
       <c r="AA346" s="1"/>
       <c r="AB346" s="1"/>
@@ -37228,7 +37233,7 @@
       <c r="X347" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y347" s="10" t="s">
+      <c r="Y347" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z347" s="1">
@@ -37348,7 +37353,7 @@
       <c r="X348" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y348" s="10" t="s">
+      <c r="Y348" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z348" s="1">
@@ -37466,7 +37471,7 @@
       <c r="X349" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y349" s="10" t="s">
+      <c r="Y349" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z349" s="1">
@@ -37548,7 +37553,7 @@
       <c r="V350" s="5"/>
       <c r="W350" s="1"/>
       <c r="X350" s="1"/>
-      <c r="Y350" s="10"/>
+      <c r="Y350" s="1"/>
       <c r="Z350" s="1"/>
       <c r="AA350" s="1"/>
       <c r="AB350" s="1"/>
@@ -37632,7 +37637,7 @@
       <c r="X351" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y351" s="10"/>
+      <c r="Y351" s="1"/>
       <c r="Z351" s="1"/>
       <c r="AA351" s="1"/>
       <c r="AB351" s="1"/>
@@ -37714,7 +37719,7 @@
       <c r="X352" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y352" s="10"/>
+      <c r="Y352" s="1"/>
       <c r="Z352" s="1"/>
       <c r="AA352" s="1"/>
       <c r="AB352" s="1"/>
@@ -37794,7 +37799,7 @@
       <c r="V353" s="5"/>
       <c r="W353" s="1"/>
       <c r="X353" s="1"/>
-      <c r="Y353" s="10"/>
+      <c r="Y353" s="1"/>
       <c r="Z353" s="1"/>
       <c r="AA353" s="1"/>
       <c r="AB353" s="1"/>
@@ -37852,7 +37857,7 @@
       <c r="V354" s="5"/>
       <c r="W354" s="1"/>
       <c r="X354" s="1"/>
-      <c r="Y354" s="10"/>
+      <c r="Y354" s="1"/>
       <c r="Z354" s="1"/>
       <c r="AA354" s="1"/>
       <c r="AB354" s="1"/>
@@ -37938,7 +37943,7 @@
       <c r="X355" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y355" s="10"/>
+      <c r="Y355" s="1"/>
       <c r="Z355" s="1"/>
       <c r="AA355" s="1"/>
       <c r="AB355" s="1"/>
@@ -38010,7 +38015,7 @@
       <c r="X356" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y356" s="10"/>
+      <c r="Y356" s="1"/>
       <c r="Z356" s="1"/>
       <c r="AA356" s="1"/>
       <c r="AB356" s="1"/>
@@ -38076,7 +38081,7 @@
       <c r="V357" s="5"/>
       <c r="W357" s="1"/>
       <c r="X357" s="1"/>
-      <c r="Y357" s="10"/>
+      <c r="Y357" s="1"/>
       <c r="Z357" s="1"/>
       <c r="AA357" s="1"/>
       <c r="AB357" s="1"/>
@@ -38136,7 +38141,7 @@
       <c r="V358" s="5"/>
       <c r="W358" s="1"/>
       <c r="X358" s="1"/>
-      <c r="Y358" s="10"/>
+      <c r="Y358" s="1"/>
       <c r="Z358" s="1"/>
       <c r="AA358" s="1"/>
       <c r="AB358" s="1"/>
@@ -38228,7 +38233,7 @@
       <c r="X359" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y359" s="10" t="s">
+      <c r="Y359" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z359" s="1">
@@ -38344,7 +38349,7 @@
       <c r="X360" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y360" s="10" t="s">
+      <c r="Y360" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z360" s="1">
@@ -38462,7 +38467,7 @@
       <c r="X361" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y361" s="10" t="s">
+      <c r="Y361" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z361" s="1">
@@ -38546,7 +38551,7 @@
       <c r="V362" s="5"/>
       <c r="W362" s="1"/>
       <c r="X362" s="1"/>
-      <c r="Y362" s="10"/>
+      <c r="Y362" s="1"/>
       <c r="Z362" s="1"/>
       <c r="AA362" s="1"/>
       <c r="AB362" s="1"/>
@@ -38646,7 +38651,7 @@
       <c r="X363" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y363" s="10" t="s">
+      <c r="Y363" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z363" s="1">
@@ -38766,7 +38771,7 @@
       <c r="X364" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y364" s="10" t="s">
+      <c r="Y364" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z364" s="1">
@@ -38890,7 +38895,7 @@
       <c r="X365" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y365" s="10" t="s">
+      <c r="Y365" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z365" s="1">
@@ -38980,7 +38985,7 @@
       <c r="V366" s="5"/>
       <c r="W366" s="1"/>
       <c r="X366" s="1"/>
-      <c r="Y366" s="10"/>
+      <c r="Y366" s="1"/>
       <c r="Z366" s="1"/>
       <c r="AA366" s="1"/>
       <c r="AB366" s="1"/>
@@ -39072,7 +39077,7 @@
         <v>111</v>
       </c>
       <c r="X367" s="1"/>
-      <c r="Y367" s="10" t="s">
+      <c r="Y367" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z367" s="1">
@@ -39188,7 +39193,7 @@
       <c r="X368" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y368" s="10" t="s">
+      <c r="Y368" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z368" s="1">
@@ -39304,7 +39309,7 @@
       <c r="X369" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y369" s="10" t="s">
+      <c r="Y369" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z369" s="1">
@@ -39384,7 +39389,7 @@
       <c r="V370" s="5"/>
       <c r="W370" s="1"/>
       <c r="X370" s="1"/>
-      <c r="Y370" s="10"/>
+      <c r="Y370" s="1"/>
       <c r="Z370" s="1"/>
       <c r="AA370" s="1"/>
       <c r="AB370" s="1"/>
@@ -39476,7 +39481,7 @@
       <c r="X371" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y371" s="10" t="s">
+      <c r="Y371" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z371" s="1">
@@ -39594,7 +39599,7 @@
       <c r="X372" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y372" s="10" t="s">
+      <c r="Y372" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z372" s="1">
@@ -39712,7 +39717,7 @@
       <c r="X373" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y373" s="10" t="s">
+      <c r="Y373" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z373" s="1">
@@ -39802,7 +39807,7 @@
       </c>
       <c r="W374" s="1"/>
       <c r="X374" s="1"/>
-      <c r="Y374" s="10"/>
+      <c r="Y374" s="1"/>
       <c r="Z374" s="1"/>
       <c r="AA374" s="1"/>
       <c r="AB374" s="1"/>
@@ -39896,7 +39901,7 @@
       <c r="X375" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y375" s="10" t="s">
+      <c r="Y375" s="1" t="s">
         <v>111</v>
       </c>
       <c r="Z375" s="1"/>
@@ -40008,7 +40013,7 @@
       <c r="X376" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y376" s="10" t="s">
+      <c r="Y376" s="1" t="s">
         <v>111</v>
       </c>
       <c r="Z376" s="1"/>
@@ -40126,7 +40131,7 @@
       <c r="X377" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y377" s="10" t="s">
+      <c r="Y377" s="1" t="s">
         <v>111</v>
       </c>
       <c r="Z377" s="1"/>
@@ -40214,7 +40219,7 @@
       <c r="V378" s="5"/>
       <c r="W378" s="1"/>
       <c r="X378" s="1"/>
-      <c r="Y378" s="10"/>
+      <c r="Y378" s="1"/>
       <c r="Z378" s="1"/>
       <c r="AA378" s="1"/>
       <c r="AB378" s="1"/>
@@ -40302,7 +40307,7 @@
       <c r="X379" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y379" s="10"/>
+      <c r="Y379" s="1"/>
       <c r="Z379" s="1"/>
       <c r="AA379" s="1"/>
       <c r="AB379" s="1"/>
@@ -40384,7 +40389,7 @@
       <c r="X380" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y380" s="10"/>
+      <c r="Y380" s="1"/>
       <c r="Z380" s="1"/>
       <c r="AA380" s="1"/>
       <c r="AB380" s="1"/>
@@ -40464,7 +40469,7 @@
       <c r="V381" s="5"/>
       <c r="W381" s="1"/>
       <c r="X381" s="1"/>
-      <c r="Y381" s="10"/>
+      <c r="Y381" s="1"/>
       <c r="Z381" s="1"/>
       <c r="AA381" s="1"/>
       <c r="AB381" s="1"/>
@@ -40524,7 +40529,7 @@
       <c r="V382" s="5"/>
       <c r="W382" s="1"/>
       <c r="X382" s="1"/>
-      <c r="Y382" s="10"/>
+      <c r="Y382" s="1"/>
       <c r="Z382" s="1"/>
       <c r="AA382" s="1"/>
       <c r="AB382" s="1"/>
@@ -40606,7 +40611,7 @@
       <c r="X383" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y383" s="10"/>
+      <c r="Y383" s="1"/>
       <c r="Z383" s="1"/>
       <c r="AA383" s="1"/>
       <c r="AB383" s="1"/>
@@ -40688,7 +40693,7 @@
       <c r="X384" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y384" s="10"/>
+      <c r="Y384" s="1"/>
       <c r="Z384" s="1"/>
       <c r="AA384" s="1"/>
       <c r="AB384" s="1"/>
@@ -40768,7 +40773,7 @@
       <c r="V385" s="5"/>
       <c r="W385" s="1"/>
       <c r="X385" s="1"/>
-      <c r="Y385" s="10"/>
+      <c r="Y385" s="1"/>
       <c r="Z385" s="1"/>
       <c r="AA385" s="1"/>
       <c r="AB385" s="1"/>
@@ -40826,7 +40831,7 @@
       <c r="V386" s="5"/>
       <c r="W386" s="1"/>
       <c r="X386" s="1"/>
-      <c r="Y386" s="10"/>
+      <c r="Y386" s="1"/>
       <c r="Z386" s="1"/>
       <c r="AA386" s="1"/>
       <c r="AB386" s="1"/>
@@ -40922,7 +40927,7 @@
       <c r="X387" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y387" s="10" t="s">
+      <c r="Y387" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z387" s="1">
@@ -41042,7 +41047,7 @@
       <c r="X388" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y388" s="10" t="s">
+      <c r="Y388" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z388" s="1">
@@ -41162,7 +41167,7 @@
       <c r="X389" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y389" s="10" t="s">
+      <c r="Y389" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z389" s="1">
@@ -41244,7 +41249,7 @@
       <c r="V390" s="5"/>
       <c r="W390" s="1"/>
       <c r="X390" s="1"/>
-      <c r="Y390" s="10"/>
+      <c r="Y390" s="1"/>
       <c r="Z390" s="1"/>
       <c r="AA390" s="1"/>
       <c r="AB390" s="1"/>
@@ -41340,7 +41345,7 @@
       <c r="X391" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y391" s="10" t="s">
+      <c r="Y391" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z391" s="1">
@@ -41448,7 +41453,7 @@
       <c r="X392" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y392" s="10"/>
+      <c r="Y392" s="1"/>
       <c r="Z392" s="1"/>
       <c r="AA392" s="1"/>
       <c r="AB392" s="1"/>
@@ -41528,7 +41533,7 @@
       <c r="V393" s="5"/>
       <c r="W393" s="1"/>
       <c r="X393" s="1"/>
-      <c r="Y393" s="10"/>
+      <c r="Y393" s="1"/>
       <c r="Z393" s="1"/>
       <c r="AA393" s="1"/>
       <c r="AB393" s="1"/>
@@ -41586,7 +41591,7 @@
       <c r="V394" s="5"/>
       <c r="W394" s="1"/>
       <c r="X394" s="1"/>
-      <c r="Y394" s="10"/>
+      <c r="Y394" s="1"/>
       <c r="Z394" s="1"/>
       <c r="AA394" s="1"/>
       <c r="AB394" s="1"/>
@@ -41668,7 +41673,7 @@
       <c r="X395" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y395" s="10"/>
+      <c r="Y395" s="1"/>
       <c r="Z395" s="1"/>
       <c r="AA395" s="1"/>
       <c r="AB395" s="1"/>
@@ -41750,7 +41755,7 @@
       <c r="X396" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y396" s="10"/>
+      <c r="Y396" s="1"/>
       <c r="Z396" s="1"/>
       <c r="AA396" s="1"/>
       <c r="AB396" s="1"/>
@@ -41830,7 +41835,7 @@
       <c r="V397" s="5"/>
       <c r="W397" s="1"/>
       <c r="X397" s="1"/>
-      <c r="Y397" s="10"/>
+      <c r="Y397" s="1"/>
       <c r="Z397" s="1"/>
       <c r="AA397" s="1"/>
       <c r="AB397" s="1"/>
@@ -41890,7 +41895,7 @@
       <c r="V398" s="5"/>
       <c r="W398" s="1"/>
       <c r="X398" s="1"/>
-      <c r="Y398" s="10"/>
+      <c r="Y398" s="1"/>
       <c r="Z398" s="1"/>
       <c r="AA398" s="1"/>
       <c r="AB398" s="1"/>
@@ -41972,7 +41977,7 @@
       <c r="X399" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y399" s="10"/>
+      <c r="Y399" s="1"/>
       <c r="Z399" s="1"/>
       <c r="AA399" s="1"/>
       <c r="AB399" s="1"/>
@@ -42054,7 +42059,7 @@
       <c r="X400" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y400" s="10"/>
+      <c r="Y400" s="1"/>
       <c r="Z400" s="1"/>
       <c r="AA400" s="1"/>
       <c r="AB400" s="1"/>
@@ -42134,7 +42139,7 @@
       <c r="V401" s="5"/>
       <c r="W401" s="1"/>
       <c r="X401" s="1"/>
-      <c r="Y401" s="10"/>
+      <c r="Y401" s="1"/>
       <c r="Z401" s="1"/>
       <c r="AA401" s="1"/>
       <c r="AB401" s="1"/>
@@ -42192,7 +42197,7 @@
       <c r="V402" s="5"/>
       <c r="W402" s="1"/>
       <c r="X402" s="1"/>
-      <c r="Y402" s="10"/>
+      <c r="Y402" s="1"/>
       <c r="Z402" s="1"/>
       <c r="AA402" s="1"/>
       <c r="AB402" s="1"/>
@@ -42274,7 +42279,7 @@
       <c r="X403" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y403" s="10"/>
+      <c r="Y403" s="1"/>
       <c r="Z403" s="1"/>
       <c r="AA403" s="1"/>
       <c r="AB403" s="1"/>
@@ -42356,7 +42361,7 @@
       <c r="X404" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y404" s="10"/>
+      <c r="Y404" s="1"/>
       <c r="Z404" s="1"/>
       <c r="AA404" s="1"/>
       <c r="AB404" s="1"/>
@@ -42436,7 +42441,7 @@
       <c r="V405" s="5"/>
       <c r="W405" s="1"/>
       <c r="X405" s="1"/>
-      <c r="Y405" s="10"/>
+      <c r="Y405" s="1"/>
       <c r="Z405" s="1"/>
       <c r="AA405" s="1"/>
       <c r="AB405" s="1"/>
@@ -42496,7 +42501,7 @@
       <c r="V406" s="5"/>
       <c r="W406" s="1"/>
       <c r="X406" s="1"/>
-      <c r="Y406" s="10"/>
+      <c r="Y406" s="1"/>
       <c r="Z406" s="1"/>
       <c r="AA406" s="1"/>
       <c r="AB406" s="1"/>
@@ -42578,7 +42583,7 @@
       <c r="X407" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y407" s="10"/>
+      <c r="Y407" s="1"/>
       <c r="Z407" s="1"/>
       <c r="AA407" s="1"/>
       <c r="AB407" s="1"/>
@@ -42662,7 +42667,7 @@
       <c r="X408" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y408" s="10"/>
+      <c r="Y408" s="1"/>
       <c r="Z408" s="1"/>
       <c r="AA408" s="1"/>
       <c r="AB408" s="1"/>
@@ -42744,7 +42749,7 @@
       <c r="V409" s="5"/>
       <c r="W409" s="1"/>
       <c r="X409" s="1"/>
-      <c r="Y409" s="10"/>
+      <c r="Y409" s="1"/>
       <c r="Z409" s="1"/>
       <c r="AA409" s="1"/>
       <c r="AB409" s="1"/>
@@ -42804,7 +42809,7 @@
       <c r="V410" s="5"/>
       <c r="W410" s="1"/>
       <c r="X410" s="1"/>
-      <c r="Y410" s="10"/>
+      <c r="Y410" s="1"/>
       <c r="Z410" s="1"/>
       <c r="AA410" s="1"/>
       <c r="AB410" s="1"/>
@@ -42900,7 +42905,7 @@
       <c r="X411" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y411" s="10" t="s">
+      <c r="Y411" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z411" s="1">
@@ -43020,7 +43025,7 @@
       <c r="X412" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y412" s="10" t="s">
+      <c r="Y412" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z412" s="1">
@@ -43146,7 +43151,7 @@
       <c r="X413" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y413" s="10" t="s">
+      <c r="Y413" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z413" s="1">
@@ -43234,7 +43239,7 @@
       <c r="V414" s="5"/>
       <c r="W414" s="1"/>
       <c r="X414" s="1"/>
-      <c r="Y414" s="10"/>
+      <c r="Y414" s="1"/>
       <c r="Z414" s="1"/>
       <c r="AA414" s="1"/>
       <c r="AB414" s="1"/>
@@ -43334,7 +43339,7 @@
       <c r="X415" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y415" s="10" t="s">
+      <c r="Y415" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z415" s="1">
@@ -43450,7 +43455,7 @@
       <c r="X416" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y416" s="10" t="s">
+      <c r="Y416" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z416" s="1">
@@ -43572,7 +43577,7 @@
       <c r="X417" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y417" s="10" t="s">
+      <c r="Y417" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z417" s="1">
@@ -43660,7 +43665,7 @@
       <c r="V418" s="5"/>
       <c r="W418" s="1"/>
       <c r="X418" s="1"/>
-      <c r="Y418" s="10"/>
+      <c r="Y418" s="1"/>
       <c r="Z418" s="1"/>
       <c r="AA418" s="1" t="s">
         <v>124</v>
@@ -43752,7 +43757,7 @@
       <c r="X419" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y419" s="10"/>
+      <c r="Y419" s="1"/>
       <c r="Z419" s="1"/>
       <c r="AA419" s="1"/>
       <c r="AB419" s="1"/>
@@ -43834,7 +43839,7 @@
       <c r="X420" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y420" s="10"/>
+      <c r="Y420" s="1"/>
       <c r="Z420" s="1"/>
       <c r="AA420" s="1"/>
       <c r="AB420" s="1"/>
@@ -43914,7 +43919,7 @@
       <c r="V421" s="5"/>
       <c r="W421" s="1"/>
       <c r="X421" s="1"/>
-      <c r="Y421" s="10"/>
+      <c r="Y421" s="1"/>
       <c r="Z421" s="1"/>
       <c r="AA421" s="1"/>
       <c r="AB421" s="1"/>
@@ -43972,7 +43977,7 @@
       <c r="V422" s="5"/>
       <c r="W422" s="1"/>
       <c r="X422" s="1"/>
-      <c r="Y422" s="10"/>
+      <c r="Y422" s="1"/>
       <c r="Z422" s="1"/>
       <c r="AA422" s="1"/>
       <c r="AB422" s="1"/>
@@ -44054,7 +44059,7 @@
       <c r="X423" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y423" s="10"/>
+      <c r="Y423" s="1"/>
       <c r="Z423" s="1"/>
       <c r="AA423" s="1"/>
       <c r="AB423" s="1"/>
@@ -44136,7 +44141,7 @@
       <c r="X424" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y424" s="10"/>
+      <c r="Y424" s="1"/>
       <c r="Z424" s="1"/>
       <c r="AA424" s="1"/>
       <c r="AB424" s="1"/>
@@ -44216,7 +44221,7 @@
       <c r="V425" s="5"/>
       <c r="W425" s="1"/>
       <c r="X425" s="1"/>
-      <c r="Y425" s="10"/>
+      <c r="Y425" s="1"/>
       <c r="Z425" s="1"/>
       <c r="AA425" s="1"/>
       <c r="AB425" s="1"/>
@@ -44276,7 +44281,7 @@
       <c r="V426" s="5"/>
       <c r="W426" s="1"/>
       <c r="X426" s="1"/>
-      <c r="Y426" s="10"/>
+      <c r="Y426" s="1"/>
       <c r="Z426" s="1"/>
       <c r="AA426" s="1"/>
       <c r="AB426" s="1"/>
@@ -44358,7 +44363,7 @@
       <c r="X427" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y427" s="10"/>
+      <c r="Y427" s="1"/>
       <c r="Z427" s="1"/>
       <c r="AA427" s="1"/>
       <c r="AB427" s="1"/>
@@ -44454,7 +44459,7 @@
       <c r="X428" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y428" s="10" t="s">
+      <c r="Y428" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z428" s="1">
@@ -44564,7 +44569,7 @@
       <c r="V429" s="5"/>
       <c r="W429" s="1"/>
       <c r="X429" s="1"/>
-      <c r="Y429" s="10"/>
+      <c r="Y429" s="1"/>
       <c r="Z429" s="1"/>
       <c r="AA429" s="1"/>
       <c r="AB429" s="1"/>
@@ -44624,7 +44629,7 @@
       <c r="V430" s="5"/>
       <c r="W430" s="1"/>
       <c r="X430" s="1"/>
-      <c r="Y430" s="10"/>
+      <c r="Y430" s="1"/>
       <c r="Z430" s="1"/>
       <c r="AA430" s="1"/>
       <c r="AB430" s="1"/>
@@ -44696,7 +44701,7 @@
       <c r="X431" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y431" s="10"/>
+      <c r="Y431" s="1"/>
       <c r="Z431" s="1"/>
       <c r="AA431" s="1"/>
       <c r="AB431" s="1"/>
@@ -44768,7 +44773,7 @@
       <c r="X432" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y432" s="10"/>
+      <c r="Y432" s="1"/>
       <c r="Z432" s="1"/>
       <c r="AA432" s="1"/>
       <c r="AB432" s="1"/>
@@ -44834,7 +44839,7 @@
       <c r="V433" s="5"/>
       <c r="W433" s="1"/>
       <c r="X433" s="1"/>
-      <c r="Y433" s="10"/>
+      <c r="Y433" s="1"/>
       <c r="Z433" s="1"/>
       <c r="AA433" s="1"/>
       <c r="AB433" s="1"/>
@@ -44892,7 +44897,7 @@
       <c r="V434" s="5"/>
       <c r="W434" s="1"/>
       <c r="X434" s="1"/>
-      <c r="Y434" s="10"/>
+      <c r="Y434" s="1"/>
       <c r="Z434" s="1"/>
       <c r="AA434" s="1"/>
       <c r="AB434" s="1"/>
@@ -44986,7 +44991,7 @@
       <c r="X435" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y435" s="10" t="s">
+      <c r="Y435" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z435" s="1">
@@ -45104,7 +45109,7 @@
       <c r="X436" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y436" s="10" t="s">
+      <c r="Y436" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z436" s="1">
@@ -45230,7 +45235,7 @@
       <c r="X437" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y437" s="10" t="s">
+      <c r="Y437" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z437" s="1">
@@ -45318,7 +45323,7 @@
       <c r="V438" s="5"/>
       <c r="W438" s="1"/>
       <c r="X438" s="1"/>
-      <c r="Y438" s="10"/>
+      <c r="Y438" s="1"/>
       <c r="Z438" s="1"/>
       <c r="AA438" s="1"/>
       <c r="AB438" s="1"/>
@@ -45412,7 +45417,7 @@
       <c r="X439" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y439" s="10" t="s">
+      <c r="Y439" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z439" s="1">
@@ -45530,7 +45535,7 @@
       <c r="X440" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y440" s="10" t="s">
+      <c r="Y440" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z440" s="1">
@@ -45652,7 +45657,7 @@
       <c r="X441" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y441" s="10" t="s">
+      <c r="Y441" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z441" s="1">
@@ -45738,7 +45743,7 @@
       <c r="V442" s="5"/>
       <c r="W442" s="1"/>
       <c r="X442" s="1"/>
-      <c r="Y442" s="10"/>
+      <c r="Y442" s="1"/>
       <c r="Z442" s="1"/>
       <c r="AA442" s="1"/>
       <c r="AB442" s="1"/>
@@ -45836,7 +45841,7 @@
       <c r="X443" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y443" s="10" t="s">
+      <c r="Y443" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z443" s="1">
@@ -45956,7 +45961,7 @@
       <c r="X444" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y444" s="10" t="s">
+      <c r="Y444" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z444" s="1">
@@ -46076,7 +46081,7 @@
       <c r="X445" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y445" s="10" t="s">
+      <c r="Y445" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z445" s="1">
@@ -46158,7 +46163,7 @@
       <c r="V446" s="5"/>
       <c r="W446" s="1"/>
       <c r="X446" s="1"/>
-      <c r="Y446" s="10"/>
+      <c r="Y446" s="1"/>
       <c r="Z446" s="1"/>
       <c r="AA446" s="1"/>
       <c r="AB446" s="1"/>
@@ -46254,7 +46259,7 @@
       <c r="X447" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y447" s="10" t="s">
+      <c r="Y447" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z447" s="1">
@@ -46374,7 +46379,7 @@
       <c r="X448" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y448" s="10" t="s">
+      <c r="Y448" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z448" s="1">
@@ -46492,7 +46497,7 @@
       <c r="X449" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y449" s="10" t="s">
+      <c r="Y449" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z449" s="1">
@@ -46576,7 +46581,7 @@
         <v>963</v>
       </c>
       <c r="X450" s="1"/>
-      <c r="Y450" s="10"/>
+      <c r="Y450" s="1"/>
       <c r="Z450" s="1"/>
       <c r="AA450" s="1" t="s">
         <v>964</v>
@@ -46664,7 +46669,7 @@
       <c r="X451" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y451" s="10"/>
+      <c r="Y451" s="1"/>
       <c r="Z451" s="1"/>
       <c r="AA451" s="1"/>
       <c r="AB451" s="1"/>
@@ -46746,7 +46751,7 @@
       <c r="X452" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y452" s="10"/>
+      <c r="Y452" s="1"/>
       <c r="Z452" s="1"/>
       <c r="AA452" s="1"/>
       <c r="AB452" s="1"/>
@@ -46826,7 +46831,7 @@
       <c r="V453" s="5"/>
       <c r="W453" s="1"/>
       <c r="X453" s="1"/>
-      <c r="Y453" s="10"/>
+      <c r="Y453" s="1"/>
       <c r="Z453" s="1"/>
       <c r="AA453" s="1"/>
       <c r="AB453" s="1"/>
@@ -46884,7 +46889,7 @@
       <c r="V454" s="5"/>
       <c r="W454" s="1"/>
       <c r="X454" s="1"/>
-      <c r="Y454" s="10"/>
+      <c r="Y454" s="1"/>
       <c r="Z454" s="1"/>
       <c r="AA454" s="1"/>
       <c r="AB454" s="1"/>
@@ -46964,7 +46969,7 @@
       <c r="X455" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y455" s="10"/>
+      <c r="Y455" s="1"/>
       <c r="Z455" s="1"/>
       <c r="AA455" s="1"/>
       <c r="AB455" s="1"/>
@@ -47056,7 +47061,7 @@
         <v>331</v>
       </c>
       <c r="X456" s="1"/>
-      <c r="Y456" s="10" t="s">
+      <c r="Y456" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z456" s="1">
@@ -47182,7 +47187,7 @@
       <c r="X457" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y457" s="10" t="s">
+      <c r="Y457" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z457" s="1">
@@ -47300,7 +47305,7 @@
       <c r="X458" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y458" s="10" t="s">
+      <c r="Y458" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z458" s="1">
@@ -47386,7 +47391,7 @@
       <c r="V459" s="5"/>
       <c r="W459" s="1"/>
       <c r="X459" s="1"/>
-      <c r="Y459" s="10"/>
+      <c r="Y459" s="1"/>
       <c r="Z459" s="1"/>
       <c r="AA459" s="1" t="s">
         <v>195</v>
@@ -47484,7 +47489,7 @@
       <c r="X460" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y460" s="10" t="s">
+      <c r="Y460" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z460" s="1">
@@ -47600,7 +47605,7 @@
       <c r="X461" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y461" s="10" t="s">
+      <c r="Y461" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z461" s="1">
@@ -47724,7 +47729,7 @@
       <c r="X462" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y462" s="10" t="s">
+      <c r="Y462" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z462" s="1">
@@ -47812,7 +47817,7 @@
       <c r="V463" s="5"/>
       <c r="W463" s="1"/>
       <c r="X463" s="1"/>
-      <c r="Y463" s="10"/>
+      <c r="Y463" s="1"/>
       <c r="Z463" s="1"/>
       <c r="AA463" s="1" t="s">
         <v>124</v>
@@ -47904,7 +47909,7 @@
       <c r="X464" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y464" s="10"/>
+      <c r="Y464" s="1"/>
       <c r="Z464" s="1"/>
       <c r="AA464" s="1"/>
       <c r="AB464" s="1"/>
@@ -47986,7 +47991,7 @@
       <c r="X465" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y465" s="10"/>
+      <c r="Y465" s="1"/>
       <c r="Z465" s="1"/>
       <c r="AA465" s="1"/>
       <c r="AB465" s="1"/>
@@ -48066,7 +48071,7 @@
       <c r="V466" s="5"/>
       <c r="W466" s="1"/>
       <c r="X466" s="1"/>
-      <c r="Y466" s="10"/>
+      <c r="Y466" s="1"/>
       <c r="Z466" s="1"/>
       <c r="AA466" s="1"/>
       <c r="AB466" s="1"/>
@@ -48126,7 +48131,7 @@
       <c r="V467" s="5"/>
       <c r="W467" s="1"/>
       <c r="X467" s="1"/>
-      <c r="Y467" s="10"/>
+      <c r="Y467" s="1"/>
       <c r="Z467" s="1"/>
       <c r="AA467" s="1"/>
       <c r="AB467" s="1"/>
@@ -48208,7 +48213,7 @@
       <c r="X468" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y468" s="10"/>
+      <c r="Y468" s="1"/>
       <c r="Z468" s="1"/>
       <c r="AA468" s="1"/>
       <c r="AB468" s="1"/>
@@ -48290,7 +48295,7 @@
       <c r="X469" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y469" s="10"/>
+      <c r="Y469" s="1"/>
       <c r="Z469" s="1"/>
       <c r="AA469" s="1"/>
       <c r="AB469" s="1"/>
@@ -48370,7 +48375,7 @@
       <c r="V470" s="5"/>
       <c r="W470" s="1"/>
       <c r="X470" s="1"/>
-      <c r="Y470" s="10"/>
+      <c r="Y470" s="1"/>
       <c r="Z470" s="1"/>
       <c r="AA470" s="1"/>
       <c r="AB470" s="1"/>
@@ -48428,7 +48433,7 @@
       <c r="V471" s="5"/>
       <c r="W471" s="1"/>
       <c r="X471" s="1"/>
-      <c r="Y471" s="10"/>
+      <c r="Y471" s="1"/>
       <c r="Z471" s="1"/>
       <c r="AA471" s="1"/>
       <c r="AB471" s="1"/>
@@ -48510,7 +48515,7 @@
       <c r="X472" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y472" s="10"/>
+      <c r="Y472" s="1"/>
       <c r="Z472" s="1"/>
       <c r="AA472" s="1"/>
       <c r="AB472" s="1"/>
@@ -48592,7 +48597,7 @@
       <c r="X473" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y473" s="10"/>
+      <c r="Y473" s="1"/>
       <c r="Z473" s="1"/>
       <c r="AA473" s="1"/>
       <c r="AB473" s="1"/>
@@ -48672,7 +48677,7 @@
       <c r="V474" s="5"/>
       <c r="W474" s="1"/>
       <c r="X474" s="1"/>
-      <c r="Y474" s="10"/>
+      <c r="Y474" s="1"/>
       <c r="Z474" s="1"/>
       <c r="AA474" s="1"/>
       <c r="AB474" s="1"/>
@@ -48730,7 +48735,7 @@
       <c r="V475" s="5"/>
       <c r="W475" s="1"/>
       <c r="X475" s="1"/>
-      <c r="Y475" s="10"/>
+      <c r="Y475" s="1"/>
       <c r="Z475" s="1"/>
       <c r="AA475" s="1"/>
       <c r="AB475" s="1"/>
@@ -48828,7 +48833,7 @@
       <c r="X476" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y476" s="10" t="s">
+      <c r="Y476" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z476" s="1">
@@ -48952,7 +48957,7 @@
       <c r="X477" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y477" s="10" t="s">
+      <c r="Y477" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z477" s="1">
@@ -49086,7 +49091,7 @@
       <c r="X478" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y478" s="10" t="s">
+      <c r="Y478" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z478" s="1">
@@ -49180,7 +49185,7 @@
       <c r="V479" s="5"/>
       <c r="W479" s="1"/>
       <c r="X479" s="1"/>
-      <c r="Y479" s="10"/>
+      <c r="Y479" s="1"/>
       <c r="Z479" s="1" t="s">
         <v>1012</v>
       </c>
@@ -49282,7 +49287,7 @@
       <c r="X480" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y480" s="10" t="s">
+      <c r="Y480" s="1" t="s">
         <v>111</v>
       </c>
       <c r="Z480" s="1" t="s">
@@ -49406,7 +49411,7 @@
       <c r="X481" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y481" s="10" t="s">
+      <c r="Y481" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z481" s="1">
@@ -49536,7 +49541,7 @@
       <c r="X482" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y482" s="10" t="s">
+      <c r="Y482" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z482" s="1">
@@ -49630,7 +49635,7 @@
       </c>
       <c r="W483" s="1"/>
       <c r="X483" s="1"/>
-      <c r="Y483" s="10"/>
+      <c r="Y483" s="1"/>
       <c r="Z483" s="1" t="s">
         <v>124</v>
       </c>
@@ -49736,7 +49741,7 @@
       <c r="X484" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y484" s="10" t="s">
+      <c r="Y484" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z484" s="1">
@@ -49866,7 +49871,7 @@
       <c r="X485" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y485" s="10" t="s">
+      <c r="Y485" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z485" s="1">
@@ -50004,7 +50009,7 @@
       <c r="X486" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y486" s="10" t="s">
+      <c r="Y486" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z486" s="1">
@@ -50104,7 +50109,7 @@
       <c r="V487" s="5"/>
       <c r="W487" s="1"/>
       <c r="X487" s="1"/>
-      <c r="Y487" s="10"/>
+      <c r="Y487" s="1"/>
       <c r="Z487" s="1"/>
       <c r="AA487" s="1"/>
       <c r="AB487" s="1"/>
@@ -50206,7 +50211,7 @@
       <c r="X488" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y488" s="10" t="s">
+      <c r="Y488" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z488" s="1">
@@ -50334,7 +50339,7 @@
       <c r="X489" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y489" s="10" t="s">
+      <c r="Y489" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z489" s="1">
@@ -50464,7 +50469,7 @@
       <c r="X490" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y490" s="10" t="s">
+      <c r="Y490" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z490" s="1">
@@ -50554,7 +50559,7 @@
       <c r="V491" s="5"/>
       <c r="W491" s="1"/>
       <c r="X491" s="1"/>
-      <c r="Y491" s="10"/>
+      <c r="Y491" s="1"/>
       <c r="Z491" s="1"/>
       <c r="AA491" s="1"/>
       <c r="AB491" s="1"/>
@@ -50654,7 +50659,7 @@
       <c r="X492" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y492" s="10" t="s">
+      <c r="Y492" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z492" s="1">
@@ -50780,7 +50785,7 @@
       <c r="X493" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y493" s="10" t="s">
+      <c r="Y493" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z493" s="1">
@@ -50912,7 +50917,7 @@
       <c r="X494" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y494" s="10" t="s">
+      <c r="Y494" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z494" s="1">
@@ -51006,7 +51011,7 @@
         <v>124</v>
       </c>
       <c r="X495" s="1"/>
-      <c r="Y495" s="10"/>
+      <c r="Y495" s="1"/>
       <c r="Z495" s="1"/>
       <c r="AA495" s="1"/>
       <c r="AB495" s="1"/>
@@ -51114,7 +51119,7 @@
       <c r="X496" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y496" s="10" t="s">
+      <c r="Y496" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z496" s="1">
@@ -51242,7 +51247,7 @@
       <c r="X497" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y497" s="10" t="s">
+      <c r="Y497" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z497" s="1">
@@ -51337,7 +51342,7 @@
         <v>1046</v>
       </c>
       <c r="K498" s="2" t="s">
-        <v>115</v>
+        <v>1258</v>
       </c>
       <c r="L498" s="5">
         <v>2021</v>
@@ -51378,7 +51383,7 @@
       <c r="X498" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y498" s="10" t="s">
+      <c r="Y498" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z498" s="1">
@@ -51472,7 +51477,7 @@
       <c r="V499" s="5"/>
       <c r="W499" s="1"/>
       <c r="X499" s="1"/>
-      <c r="Y499" s="10"/>
+      <c r="Y499" s="1"/>
       <c r="Z499" s="1"/>
       <c r="AA499" s="1"/>
       <c r="AB499" s="1"/>
@@ -51578,7 +51583,7 @@
       <c r="X500" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y500" s="10" t="s">
+      <c r="Y500" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z500" s="1">
@@ -51712,7 +51717,7 @@
       <c r="X501" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y501" s="10" t="s">
+      <c r="Y501" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z501" s="1">
@@ -51846,7 +51851,7 @@
       <c r="X502" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y502" s="10" t="s">
+      <c r="Y502" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z502" s="1">
@@ -51936,7 +51941,7 @@
       <c r="V503" s="5"/>
       <c r="W503" s="1"/>
       <c r="X503" s="1"/>
-      <c r="Y503" s="10"/>
+      <c r="Y503" s="1"/>
       <c r="Z503" s="1"/>
       <c r="AA503" s="1"/>
       <c r="AB503" s="1"/>
@@ -52038,7 +52043,7 @@
       <c r="X504" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y504" s="10" t="s">
+      <c r="Y504" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z504" s="1">
@@ -52166,7 +52171,7 @@
       <c r="X505" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y505" s="10" t="s">
+      <c r="Y505" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z505" s="1">
@@ -52294,7 +52299,7 @@
       <c r="X506" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y506" s="10" t="s">
+      <c r="Y506" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z506" s="1">
@@ -52382,7 +52387,7 @@
       <c r="V507" s="5"/>
       <c r="W507" s="1"/>
       <c r="X507" s="1"/>
-      <c r="Y507" s="10"/>
+      <c r="Y507" s="1"/>
       <c r="Z507" s="1"/>
       <c r="AA507" s="1"/>
       <c r="AB507" s="1"/>
@@ -52486,7 +52491,7 @@
       <c r="X508" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y508" s="10" t="s">
+      <c r="Y508" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z508" s="1">
@@ -52616,7 +52621,7 @@
       <c r="X509" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y509" s="10" t="s">
+      <c r="Y509" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z509" s="1">
@@ -52750,7 +52755,7 @@
       <c r="X510" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y510" s="10" t="s">
+      <c r="Y510" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z510" s="1">
@@ -52842,7 +52847,7 @@
       <c r="V511" s="5"/>
       <c r="W511" s="1"/>
       <c r="X511" s="1"/>
-      <c r="Y511" s="10"/>
+      <c r="Y511" s="1"/>
       <c r="Z511" s="1"/>
       <c r="AA511" s="1" t="s">
         <v>124</v>
@@ -52926,7 +52931,7 @@
       <c r="X512" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y512" s="10"/>
+      <c r="Y512" s="1"/>
       <c r="Z512" s="1" t="s">
         <v>115</v>
       </c>
@@ -53012,7 +53017,7 @@
       <c r="X513" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y513" s="10"/>
+      <c r="Y513" s="1"/>
       <c r="Z513" s="1" t="s">
         <v>115</v>
       </c>
@@ -53092,7 +53097,7 @@
       <c r="V514" s="5"/>
       <c r="W514" s="1"/>
       <c r="X514" s="1"/>
-      <c r="Y514" s="10"/>
+      <c r="Y514" s="1"/>
       <c r="Z514" s="1"/>
       <c r="AA514" s="1"/>
       <c r="AB514" s="1"/>
@@ -53150,7 +53155,7 @@
       <c r="V515" s="5"/>
       <c r="W515" s="1"/>
       <c r="X515" s="1"/>
-      <c r="Y515" s="10"/>
+      <c r="Y515" s="1"/>
       <c r="Z515" s="1"/>
       <c r="AA515" s="1"/>
       <c r="AB515" s="1"/>
@@ -53248,7 +53253,7 @@
       <c r="X516" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y516" s="10" t="s">
+      <c r="Y516" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z516" s="1">
@@ -53378,7 +53383,7 @@
       <c r="X517" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y517" s="10" t="s">
+      <c r="Y517" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z517" s="1">
@@ -53508,7 +53513,7 @@
       <c r="X518" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y518" s="10" t="s">
+      <c r="Y518" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z518" s="1">
@@ -53598,7 +53603,7 @@
       <c r="V519" s="5"/>
       <c r="W519" s="1"/>
       <c r="X519" s="1"/>
-      <c r="Y519" s="10"/>
+      <c r="Y519" s="1"/>
       <c r="Z519" s="1"/>
       <c r="AA519" s="1"/>
       <c r="AB519" s="1"/>
@@ -53704,7 +53709,7 @@
       <c r="X520" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y520" s="10" t="s">
+      <c r="Y520" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z520" s="1">
@@ -53836,7 +53841,7 @@
       <c r="X521" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y521" s="10" t="s">
+      <c r="Y521" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z521" s="1">
@@ -53970,7 +53975,7 @@
       <c r="X522" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y522" s="10" t="s">
+      <c r="Y522" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z522" s="1">
@@ -54062,7 +54067,7 @@
       <c r="V523" s="5"/>
       <c r="W523" s="1"/>
       <c r="X523" s="1"/>
-      <c r="Y523" s="10"/>
+      <c r="Y523" s="1"/>
       <c r="Z523" s="1"/>
       <c r="AA523" s="1"/>
       <c r="AB523" s="1"/>
@@ -54166,7 +54171,7 @@
       <c r="X524" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y524" s="10" t="s">
+      <c r="Y524" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z524" s="1">
@@ -54282,7 +54287,7 @@
       <c r="X525" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y525" s="10"/>
+      <c r="Y525" s="1"/>
       <c r="Z525" s="1" t="s">
         <v>115</v>
       </c>
@@ -54376,7 +54381,7 @@
       <c r="X526" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y526" s="10"/>
+      <c r="Y526" s="1"/>
       <c r="Z526" s="1" t="s">
         <v>115</v>
       </c>
@@ -54442,7 +54447,7 @@
       <c r="V527" s="5"/>
       <c r="W527" s="1"/>
       <c r="X527" s="1"/>
-      <c r="Y527" s="10"/>
+      <c r="Y527" s="1"/>
       <c r="Z527" s="1"/>
       <c r="AA527" s="1"/>
       <c r="AB527" s="1"/>
@@ -54542,7 +54547,7 @@
       <c r="X528" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y528" s="10" t="s">
+      <c r="Y528" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z528" s="1">
@@ -54670,7 +54675,7 @@
       <c r="X529" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y529" s="10" t="s">
+      <c r="Y529" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z529" s="1">
@@ -54802,7 +54807,7 @@
       <c r="X530" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y530" s="10" t="s">
+      <c r="Y530" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z530" s="1">
@@ -54892,7 +54897,7 @@
       <c r="V531" s="5"/>
       <c r="W531" s="1"/>
       <c r="X531" s="1"/>
-      <c r="Y531" s="10"/>
+      <c r="Y531" s="1"/>
       <c r="Z531" s="1"/>
       <c r="AA531" s="1"/>
       <c r="AB531" s="1"/>
@@ -54992,7 +54997,7 @@
       <c r="X532" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y532" s="10" t="s">
+      <c r="Y532" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z532" s="1">
@@ -55120,7 +55125,7 @@
       <c r="X533" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y533" s="10" t="s">
+      <c r="Y533" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z533" s="1">
@@ -55252,7 +55257,7 @@
       <c r="X534" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y534" s="10" t="s">
+      <c r="Y534" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z534" s="1">
@@ -55342,7 +55347,7 @@
       <c r="V535" s="5"/>
       <c r="W535" s="1"/>
       <c r="X535" s="1"/>
-      <c r="Y535" s="10"/>
+      <c r="Y535" s="1"/>
       <c r="Z535" s="1"/>
       <c r="AA535" s="1"/>
       <c r="AB535" s="1"/>
@@ -55432,7 +55437,7 @@
       <c r="X536" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y536" s="10"/>
+      <c r="Y536" s="1"/>
       <c r="Z536" s="1" t="s">
         <v>115</v>
       </c>
@@ -55526,7 +55531,7 @@
       <c r="X537" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y537" s="10"/>
+      <c r="Y537" s="1"/>
       <c r="Z537" s="1" t="s">
         <v>115</v>
       </c>
@@ -55616,7 +55621,7 @@
       <c r="V538" s="5"/>
       <c r="W538" s="1"/>
       <c r="X538" s="1"/>
-      <c r="Y538" s="10"/>
+      <c r="Y538" s="1"/>
       <c r="Z538" s="1"/>
       <c r="AA538" s="1"/>
       <c r="AB538" s="1"/>
@@ -55674,7 +55679,7 @@
       <c r="V539" s="5"/>
       <c r="W539" s="1"/>
       <c r="X539" s="1"/>
-      <c r="Y539" s="10"/>
+      <c r="Y539" s="1"/>
       <c r="Z539" s="1"/>
       <c r="AA539" s="1"/>
       <c r="AB539" s="1"/>
@@ -55774,7 +55779,7 @@
       <c r="X540" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y540" s="10" t="s">
+      <c r="Y540" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z540" s="1">
@@ -55904,7 +55909,7 @@
       <c r="X541" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y541" s="10" t="s">
+      <c r="Y541" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z541" s="1">
@@ -56038,7 +56043,7 @@
       <c r="X542" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y542" s="10" t="s">
+      <c r="Y542" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z542" s="1">
@@ -56130,7 +56135,7 @@
       <c r="V543" s="5"/>
       <c r="W543" s="1"/>
       <c r="X543" s="1"/>
-      <c r="Y543" s="10"/>
+      <c r="Y543" s="1"/>
       <c r="Z543" s="1"/>
       <c r="AA543" s="1"/>
       <c r="AB543" s="1"/>
@@ -56232,7 +56237,7 @@
       <c r="X544" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y544" s="10" t="s">
+      <c r="Y544" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z544" s="1">
@@ -56362,7 +56367,7 @@
       <c r="X545" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y545" s="10" t="s">
+      <c r="Y545" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z545" s="1">
@@ -56494,7 +56499,7 @@
       <c r="X546" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y546" s="10" t="s">
+      <c r="Y546" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z546" s="1">
@@ -56588,7 +56593,7 @@
         <v>124</v>
       </c>
       <c r="X547" s="1"/>
-      <c r="Y547" s="10"/>
+      <c r="Y547" s="1"/>
       <c r="Z547" s="1"/>
       <c r="AA547" s="1"/>
       <c r="AB547" s="1"/>
@@ -56690,7 +56695,7 @@
       <c r="X548" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y548" s="10" t="s">
+      <c r="Y548" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z548" s="1">
@@ -56820,7 +56825,7 @@
       <c r="X549" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y549" s="10" t="s">
+      <c r="Y549" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z549" s="1">
@@ -56954,7 +56959,7 @@
       <c r="X550" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y550" s="10" t="s">
+      <c r="Y550" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z550" s="1">
@@ -57046,7 +57051,7 @@
       <c r="V551" s="5"/>
       <c r="W551" s="1"/>
       <c r="X551" s="1"/>
-      <c r="Y551" s="10"/>
+      <c r="Y551" s="1"/>
       <c r="Z551" s="1"/>
       <c r="AA551" s="1"/>
       <c r="AB551" s="1"/>
@@ -57142,7 +57147,7 @@
       <c r="X552" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y552" s="10"/>
+      <c r="Y552" s="1"/>
       <c r="Z552" s="1" t="s">
         <v>115</v>
       </c>
@@ -57246,7 +57251,7 @@
       <c r="X553" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y553" s="10" t="s">
+      <c r="Y553" s="1" t="s">
         <v>111</v>
       </c>
       <c r="Z553" s="1" t="s">
@@ -57372,7 +57377,7 @@
       <c r="X554" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y554" s="10" t="s">
+      <c r="Y554" s="1" t="s">
         <v>111</v>
       </c>
       <c r="Z554" s="1" t="s">
@@ -57458,7 +57463,7 @@
       <c r="V555" s="5"/>
       <c r="W555" s="1"/>
       <c r="X555" s="1"/>
-      <c r="Y555" s="10"/>
+      <c r="Y555" s="1"/>
       <c r="Z555" s="1"/>
       <c r="AA555" s="1"/>
       <c r="AB555" s="1"/>
@@ -57558,7 +57563,7 @@
       <c r="X556" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y556" s="10" t="s">
+      <c r="Y556" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z556" s="1">
@@ -57686,7 +57691,7 @@
       <c r="X557" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y557" s="10" t="s">
+      <c r="Y557" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z557" s="1">
@@ -57820,7 +57825,7 @@
       <c r="X558" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y558" s="10" t="s">
+      <c r="Y558" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z558" s="1">
@@ -57912,7 +57917,7 @@
       <c r="V559" s="5"/>
       <c r="W559" s="1"/>
       <c r="X559" s="1"/>
-      <c r="Y559" s="10"/>
+      <c r="Y559" s="1"/>
       <c r="Z559" s="1"/>
       <c r="AA559" s="1"/>
       <c r="AB559" s="1"/>
@@ -58014,7 +58019,7 @@
       <c r="X560" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y560" s="10" t="s">
+      <c r="Y560" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z560" s="1">
@@ -58140,7 +58145,7 @@
       <c r="X561" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y561" s="10" t="s">
+      <c r="Y561" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z561" s="1">
@@ -58276,7 +58281,7 @@
       <c r="X562" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y562" s="10" t="s">
+      <c r="Y562" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z562" s="1">
@@ -58370,7 +58375,7 @@
       <c r="V563" s="5"/>
       <c r="W563" s="1"/>
       <c r="X563" s="1"/>
-      <c r="Y563" s="10"/>
+      <c r="Y563" s="1"/>
       <c r="Z563" s="1"/>
       <c r="AA563" s="1" t="s">
         <v>124</v>
@@ -58468,7 +58473,7 @@
       <c r="X564" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y564" s="10"/>
+      <c r="Y564" s="1"/>
       <c r="Z564" s="1" t="s">
         <v>115</v>
       </c>
@@ -58574,7 +58579,7 @@
       <c r="X565" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y565" s="10" t="s">
+      <c r="Y565" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z565" s="1">
@@ -58708,7 +58713,7 @@
       <c r="X566" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y566" s="10" t="s">
+      <c r="Y566" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z566" s="1">
@@ -58800,7 +58805,7 @@
       <c r="V567" s="5"/>
       <c r="W567" s="1"/>
       <c r="X567" s="1"/>
-      <c r="Y567" s="10"/>
+      <c r="Y567" s="1"/>
       <c r="Z567" s="1"/>
       <c r="AA567" s="1"/>
       <c r="AB567" s="1"/>
@@ -58900,7 +58905,7 @@
       <c r="X568" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y568" s="10" t="s">
+      <c r="Y568" s="1" t="s">
         <v>111</v>
       </c>
       <c r="Z568" s="1" t="s">
@@ -59028,7 +59033,7 @@
       <c r="X569" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y569" s="10" t="s">
+      <c r="Y569" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z569" s="1">
@@ -59158,7 +59163,7 @@
       <c r="X570" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y570" s="10" t="s">
+      <c r="Y570" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z570" s="1">
@@ -59250,7 +59255,7 @@
       </c>
       <c r="W571" s="1"/>
       <c r="X571" s="1"/>
-      <c r="Y571" s="10"/>
+      <c r="Y571" s="1"/>
       <c r="Z571" s="1" t="s">
         <v>1169</v>
       </c>
@@ -59360,7 +59365,7 @@
       <c r="X572" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y572" s="10" t="s">
+      <c r="Y572" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z572" s="1">
@@ -59488,7 +59493,7 @@
       <c r="X573" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y573" s="10" t="s">
+      <c r="Y573" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z573" s="1">
@@ -59620,7 +59625,7 @@
       <c r="X574" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y574" s="10" t="s">
+      <c r="Y574" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z574" s="1">
@@ -59710,7 +59715,7 @@
       <c r="V575" s="5"/>
       <c r="W575" s="1"/>
       <c r="X575" s="1"/>
-      <c r="Y575" s="10"/>
+      <c r="Y575" s="1"/>
       <c r="Z575" s="1"/>
       <c r="AA575" s="1"/>
       <c r="AB575" s="1"/>
@@ -59820,7 +59825,7 @@
       <c r="X576" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y576" s="10" t="s">
+      <c r="Y576" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z576" s="1">
@@ -59950,7 +59955,7 @@
       <c r="X577" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y577" s="10" t="s">
+      <c r="Y577" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z577" s="1">
@@ -60084,7 +60089,7 @@
       <c r="X578" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y578" s="10" t="s">
+      <c r="Y578" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z578" s="1">
@@ -60178,7 +60183,7 @@
       <c r="V579" s="5"/>
       <c r="W579" s="1"/>
       <c r="X579" s="1"/>
-      <c r="Y579" s="10"/>
+      <c r="Y579" s="1"/>
       <c r="Z579" s="1"/>
       <c r="AA579" s="1"/>
       <c r="AB579" s="1"/>
@@ -60258,7 +60263,7 @@
       <c r="V580" s="5"/>
       <c r="W580" s="1"/>
       <c r="X580" s="1"/>
-      <c r="Y580" s="10"/>
+      <c r="Y580" s="1"/>
       <c r="Z580" s="1"/>
       <c r="AA580" s="1"/>
       <c r="AB580" s="1"/>
@@ -60349,7 +60354,7 @@
         <v>331</v>
       </c>
       <c r="X581" s="1"/>
-      <c r="Y581" s="10" t="s">
+      <c r="Y581" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z581" s="1">
@@ -60463,7 +60468,7 @@
         <v>331</v>
       </c>
       <c r="X582" s="1"/>
-      <c r="Y582" s="10" t="s">
+      <c r="Y582" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z582" s="1">
@@ -60577,7 +60582,7 @@
         <v>331</v>
       </c>
       <c r="X583" s="1"/>
-      <c r="Y583" s="10" t="s">
+      <c r="Y583" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z583" s="1">
@@ -60659,7 +60664,7 @@
       <c r="V584" s="5"/>
       <c r="W584" s="1"/>
       <c r="X584" s="1"/>
-      <c r="Y584" s="10"/>
+      <c r="Y584" s="1"/>
       <c r="Z584" s="1"/>
       <c r="AA584" s="1"/>
       <c r="AB584" s="1"/>
@@ -60755,7 +60760,7 @@
         <v>331</v>
       </c>
       <c r="X585" s="1"/>
-      <c r="Y585" s="10" t="s">
+      <c r="Y585" s="1" t="s">
         <v>111</v>
       </c>
       <c r="Z585" s="1"/>
@@ -60863,7 +60868,7 @@
       <c r="V586" s="5"/>
       <c r="W586" s="1"/>
       <c r="X586" s="1"/>
-      <c r="Y586" s="10"/>
+      <c r="Y586" s="1"/>
       <c r="Z586" s="1"/>
       <c r="AA586" s="1"/>
       <c r="AB586" s="1"/>
@@ -60943,7 +60948,7 @@
       <c r="V587" s="5"/>
       <c r="W587" s="1"/>
       <c r="X587" s="1"/>
-      <c r="Y587" s="10"/>
+      <c r="Y587" s="1"/>
       <c r="Z587" s="1"/>
       <c r="AA587" s="1"/>
       <c r="AB587" s="1"/>
@@ -61003,7 +61008,7 @@
       <c r="V588" s="5"/>
       <c r="W588" s="1"/>
       <c r="X588" s="1"/>
-      <c r="Y588" s="10"/>
+      <c r="Y588" s="1"/>
       <c r="Z588" s="1"/>
       <c r="AA588" s="1"/>
       <c r="AB588" s="1"/>
@@ -61091,7 +61096,7 @@
         <v>331</v>
       </c>
       <c r="X589" s="1"/>
-      <c r="Y589" s="10" t="s">
+      <c r="Y589" s="1" t="s">
         <v>111</v>
       </c>
       <c r="Z589" s="1"/>
@@ -61201,7 +61206,7 @@
         <v>331</v>
       </c>
       <c r="X590" s="1"/>
-      <c r="Y590" s="10" t="s">
+      <c r="Y590" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z590" s="1">
@@ -61313,7 +61318,7 @@
         <v>331</v>
       </c>
       <c r="X591" s="1"/>
-      <c r="Y591" s="10" t="s">
+      <c r="Y591" s="1" t="s">
         <v>111</v>
       </c>
       <c r="Z591" s="1"/>
@@ -61393,7 +61398,7 @@
       <c r="V592" s="5"/>
       <c r="W592" s="1"/>
       <c r="X592" s="1"/>
-      <c r="Y592" s="10" t="s">
+      <c r="Y592" s="1" t="s">
         <v>1203</v>
       </c>
       <c r="Z592" s="1"/>
@@ -61461,7 +61466,7 @@
       <c r="V593" s="5"/>
       <c r="W593" s="1"/>
       <c r="X593" s="1"/>
-      <c r="Y593" s="10"/>
+      <c r="Y593" s="1"/>
       <c r="Z593" s="1"/>
       <c r="AA593" s="1"/>
       <c r="AB593" s="1"/>
@@ -61527,7 +61532,7 @@
       <c r="V594" s="5"/>
       <c r="W594" s="1"/>
       <c r="X594" s="1"/>
-      <c r="Y594" s="10"/>
+      <c r="Y594" s="1"/>
       <c r="Z594" s="1"/>
       <c r="AA594" s="1"/>
       <c r="AB594" s="1"/>
@@ -61591,7 +61596,7 @@
       <c r="V595" s="5"/>
       <c r="W595" s="1"/>
       <c r="X595" s="1"/>
-      <c r="Y595" s="10"/>
+      <c r="Y595" s="1"/>
       <c r="Z595" s="1"/>
       <c r="AA595" s="1"/>
       <c r="AB595" s="1"/>
@@ -61649,7 +61654,7 @@
       <c r="V596" s="5"/>
       <c r="W596" s="1"/>
       <c r="X596" s="1"/>
-      <c r="Y596" s="10"/>
+      <c r="Y596" s="1"/>
       <c r="Z596" s="1"/>
       <c r="AA596" s="1"/>
       <c r="AB596" s="1"/>
@@ -61739,7 +61744,7 @@
         <v>111</v>
       </c>
       <c r="X597" s="1"/>
-      <c r="Y597" s="10" t="s">
+      <c r="Y597" s="1" t="s">
         <v>111</v>
       </c>
       <c r="Z597" s="1"/>
@@ -61849,7 +61854,7 @@
         <v>111</v>
       </c>
       <c r="X598" s="1"/>
-      <c r="Y598" s="10" t="s">
+      <c r="Y598" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z598" s="1">
@@ -61961,7 +61966,7 @@
         <v>111</v>
       </c>
       <c r="X599" s="1"/>
-      <c r="Y599" s="10" t="s">
+      <c r="Y599" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z599" s="1">
@@ -62041,7 +62046,7 @@
       <c r="V600" s="5"/>
       <c r="W600" s="1"/>
       <c r="X600" s="1"/>
-      <c r="Y600" s="10" t="s">
+      <c r="Y600" s="1" t="s">
         <v>1209</v>
       </c>
       <c r="Z600" s="1" t="s">
@@ -62137,7 +62142,7 @@
         <v>331</v>
       </c>
       <c r="X601" s="1"/>
-      <c r="Y601" s="10" t="s">
+      <c r="Y601" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z601" s="1">
@@ -62251,7 +62256,7 @@
         <v>331</v>
       </c>
       <c r="X602" s="1"/>
-      <c r="Y602" s="10" t="s">
+      <c r="Y602" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z602" s="1">
@@ -62371,7 +62376,7 @@
         <v>331</v>
       </c>
       <c r="X603" s="1"/>
-      <c r="Y603" s="10" t="s">
+      <c r="Y603" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z603" s="1">
@@ -62457,7 +62462,7 @@
       <c r="V604" s="5"/>
       <c r="W604" s="1"/>
       <c r="X604" s="1"/>
-      <c r="Y604" s="10"/>
+      <c r="Y604" s="1"/>
       <c r="Z604" s="1"/>
       <c r="AA604" s="1"/>
       <c r="AB604" s="1"/>
@@ -62513,7 +62518,7 @@
       <c r="V605" s="5"/>
       <c r="W605" s="1"/>
       <c r="X605" s="1"/>
-      <c r="Y605" s="10"/>
+      <c r="Y605" s="1"/>
       <c r="Z605" s="1"/>
       <c r="AA605" s="1"/>
       <c r="AB605" s="1"/>
@@ -62590,7 +62595,7 @@
       <c r="V606" s="1"/>
       <c r="W606" s="1"/>
       <c r="X606" s="1"/>
-      <c r="Y606" s="10"/>
+      <c r="Y606" s="1"/>
       <c r="Z606" s="1"/>
       <c r="AA606" s="1"/>
       <c r="AB606" s="1"/>
@@ -62646,7 +62651,7 @@
       <c r="V607" s="5"/>
       <c r="W607" s="1"/>
       <c r="X607" s="1"/>
-      <c r="Y607" s="10"/>
+      <c r="Y607" s="1"/>
       <c r="Z607" s="1"/>
       <c r="AA607" s="1"/>
       <c r="AB607" s="1"/>
@@ -62702,7 +62707,7 @@
       <c r="V608" s="5"/>
       <c r="W608" s="1"/>
       <c r="X608" s="1"/>
-      <c r="Y608" s="10"/>
+      <c r="Y608" s="1"/>
       <c r="Z608" s="1"/>
       <c r="AA608" s="1"/>
       <c r="AB608" s="1"/>
